--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto.xlsx
@@ -391,13 +391,13 @@
         <v>10410.32583439286</v>
       </c>
       <c r="C2">
-        <v>21435.76218300074</v>
+        <v>21435.76218300075</v>
       </c>
       <c r="D2">
-        <v>43723.15858427634</v>
+        <v>43723.15858427631</v>
       </c>
       <c r="E2">
-        <v>65098.59465735405</v>
+        <v>65098.59465735401</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8913.967030324136</v>
+        <v>8913.967030324138</v>
       </c>
       <c r="C4">
-        <v>18886.25654255852</v>
+        <v>18886.25654255853</v>
       </c>
       <c r="D4">
-        <v>40825.6680821788</v>
+        <v>40825.66808217877</v>
       </c>
       <c r="E4">
-        <v>62501.44544278275</v>
+        <v>62501.44544278269</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8913.967030324136</v>
+        <v>8913.967030324138</v>
       </c>
       <c r="C5">
-        <v>18886.25654255852</v>
+        <v>18886.25654255853</v>
       </c>
       <c r="D5">
-        <v>40825.6680821788</v>
+        <v>40825.66808217877</v>
       </c>
       <c r="E5">
-        <v>62501.44544278275</v>
+        <v>62501.44544278269</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8913.967030324136</v>
+        <v>8913.967030324138</v>
       </c>
       <c r="C6">
-        <v>18886.25654255852</v>
+        <v>18886.25654255853</v>
       </c>
       <c r="D6">
-        <v>40825.6680821788</v>
+        <v>40825.66808217877</v>
       </c>
       <c r="E6">
-        <v>62501.44544278275</v>
+        <v>62501.44544278269</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10567.49929181009</v>
+        <v>10567.4992918101</v>
       </c>
       <c r="C7">
-        <v>21625.41781459454</v>
+        <v>21625.41781459455</v>
       </c>
       <c r="D7">
         <v>44104.981245728</v>
       </c>
       <c r="E7">
-        <v>66095.11437228906</v>
+        <v>66095.11437228904</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10567.49929181009</v>
+        <v>10567.4992918101</v>
       </c>
       <c r="C8">
-        <v>21625.41781459454</v>
+        <v>21625.41781459455</v>
       </c>
       <c r="D8">
         <v>44104.981245728</v>
       </c>
       <c r="E8">
-        <v>66095.11437228906</v>
+        <v>66095.11437228904</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -510,13 +510,13 @@
         <v>10158.36737486957</v>
       </c>
       <c r="C9">
-        <v>20826.61238525544</v>
+        <v>20826.61238525543</v>
       </c>
       <c r="D9">
         <v>42806.51404389829</v>
       </c>
       <c r="E9">
-        <v>64306.16831076532</v>
+        <v>64306.16831076525</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10567.49929181009</v>
+        <v>10567.4992918101</v>
       </c>
       <c r="C10">
-        <v>21625.41781459454</v>
+        <v>21625.41781459455</v>
       </c>
       <c r="D10">
         <v>44104.981245728</v>
       </c>
       <c r="E10">
-        <v>66095.11437228906</v>
+        <v>66095.11437228904</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10567.49929181009</v>
+        <v>10567.4992918101</v>
       </c>
       <c r="C11">
-        <v>21625.41781459454</v>
+        <v>21625.41781459455</v>
       </c>
       <c r="D11">
         <v>44104.981245728</v>
       </c>
       <c r="E11">
-        <v>66095.11437228906</v>
+        <v>66095.11437228904</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8913.967030324136</v>
+        <v>8913.967030324138</v>
       </c>
       <c r="C12">
-        <v>18886.25654255852</v>
+        <v>18886.25654255853</v>
       </c>
       <c r="D12">
-        <v>40825.6680821788</v>
+        <v>40825.66808217877</v>
       </c>
       <c r="E12">
-        <v>62501.44544278275</v>
+        <v>62501.44544278269</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -592,16 +592,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>8913.967030324136</v>
+        <v>8913.967030324138</v>
       </c>
       <c r="C14">
-        <v>18886.25654255852</v>
+        <v>18886.25654255853</v>
       </c>
       <c r="D14">
-        <v>40825.6680821788</v>
+        <v>40825.66808217877</v>
       </c>
       <c r="E14">
-        <v>62501.44544278275</v>
+        <v>62501.44544278269</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -609,16 +609,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10567.49929181009</v>
+        <v>10567.4992918101</v>
       </c>
       <c r="C15">
-        <v>21625.41781459454</v>
+        <v>21625.41781459455</v>
       </c>
       <c r="D15">
         <v>44104.981245728</v>
       </c>
       <c r="E15">
-        <v>66095.11437228906</v>
+        <v>66095.11437228904</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -626,16 +626,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9970.038233946663</v>
+        <v>9970.03823394666</v>
       </c>
       <c r="C16">
         <v>20592.89674280471</v>
       </c>
       <c r="D16">
-        <v>42383.39030642979</v>
+        <v>42383.39030642978</v>
       </c>
       <c r="E16">
-        <v>63278.28303059271</v>
+        <v>63278.28303059272</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -643,16 +643,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8913.967030324136</v>
+        <v>8913.967030324138</v>
       </c>
       <c r="C17">
-        <v>18886.25654255852</v>
+        <v>18886.25654255853</v>
       </c>
       <c r="D17">
-        <v>40825.6680821788</v>
+        <v>40825.66808217877</v>
       </c>
       <c r="E17">
-        <v>62501.44544278275</v>
+        <v>62501.44544278269</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -677,16 +677,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>9970.038233946663</v>
+        <v>9970.03823394666</v>
       </c>
       <c r="C19">
         <v>20592.89674280471</v>
       </c>
       <c r="D19">
-        <v>42383.39030642979</v>
+        <v>42383.39030642978</v>
       </c>
       <c r="E19">
-        <v>63278.28303059271</v>
+        <v>63278.28303059272</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -694,16 +694,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>9970.038233946663</v>
+        <v>9970.03823394666</v>
       </c>
       <c r="C20">
         <v>20592.89674280471</v>
       </c>
       <c r="D20">
-        <v>42383.39030642979</v>
+        <v>42383.39030642978</v>
       </c>
       <c r="E20">
-        <v>63278.28303059271</v>
+        <v>63278.28303059272</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -711,16 +711,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9970.038233946663</v>
+        <v>9970.03823394666</v>
       </c>
       <c r="C21">
         <v>20592.89674280471</v>
       </c>
       <c r="D21">
-        <v>42383.39030642979</v>
+        <v>42383.39030642978</v>
       </c>
       <c r="E21">
-        <v>63278.28303059271</v>
+        <v>63278.28303059272</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,16 +728,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>13185.80450706085</v>
+        <v>13185.80450706084</v>
       </c>
       <c r="C22">
-        <v>26932.45888928229</v>
+        <v>26932.4588892823</v>
       </c>
       <c r="D22">
-        <v>51669.66738526604</v>
+        <v>51669.66738526605</v>
       </c>
       <c r="E22">
-        <v>74495.38511280855</v>
+        <v>74495.38511280852</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -748,13 +748,13 @@
         <v>10410.32583439286</v>
       </c>
       <c r="C23">
-        <v>21435.76218300074</v>
+        <v>21435.76218300075</v>
       </c>
       <c r="D23">
-        <v>43723.15858427634</v>
+        <v>43723.15858427631</v>
       </c>
       <c r="E23">
-        <v>65098.59465735405</v>
+        <v>65098.59465735401</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -762,16 +762,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6861.085478997055</v>
+        <v>6861.085478997052</v>
       </c>
       <c r="C24">
         <v>14761.32576503244</v>
       </c>
       <c r="D24">
-        <v>34271.90361491394</v>
+        <v>34271.90361491396</v>
       </c>
       <c r="E24">
-        <v>52971.123758028</v>
+        <v>52971.12375802798</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -779,16 +779,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>6861.085478997055</v>
+        <v>6861.085478997052</v>
       </c>
       <c r="C25">
         <v>14761.32576503244</v>
       </c>
       <c r="D25">
-        <v>34271.90361491394</v>
+        <v>34271.90361491396</v>
       </c>
       <c r="E25">
-        <v>52971.123758028</v>
+        <v>52971.12375802798</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -796,16 +796,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>6861.085478997055</v>
+        <v>6861.085478997052</v>
       </c>
       <c r="C26">
         <v>14761.32576503244</v>
       </c>
       <c r="D26">
-        <v>34271.90361491394</v>
+        <v>34271.90361491396</v>
       </c>
       <c r="E26">
-        <v>52971.123758028</v>
+        <v>52971.12375802798</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -813,16 +813,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>9865.505130840174</v>
+        <v>9865.505130840178</v>
       </c>
       <c r="C27">
-        <v>20241.2028307999</v>
+        <v>20241.20283079991</v>
       </c>
       <c r="D27">
-        <v>42096.52745424265</v>
+        <v>42096.52745424264</v>
       </c>
       <c r="E27">
-        <v>63636.90338420822</v>
+        <v>63636.90338420818</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -830,16 +830,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>9865.505130840174</v>
+        <v>9865.505130840178</v>
       </c>
       <c r="C28">
-        <v>20241.2028307999</v>
+        <v>20241.20283079991</v>
       </c>
       <c r="D28">
-        <v>42096.52745424265</v>
+        <v>42096.52745424264</v>
       </c>
       <c r="E28">
-        <v>63636.90338420822</v>
+        <v>63636.90338420818</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -847,16 +847,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>9865.505130840174</v>
+        <v>9865.505130840178</v>
       </c>
       <c r="C29">
-        <v>20241.2028307999</v>
+        <v>20241.20283079991</v>
       </c>
       <c r="D29">
-        <v>42096.52745424265</v>
+        <v>42096.52745424264</v>
       </c>
       <c r="E29">
-        <v>63636.90338420822</v>
+        <v>63636.90338420818</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -864,16 +864,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>13159.4663224277</v>
+        <v>13159.46632242771</v>
       </c>
       <c r="C30">
         <v>26416.7063859417</v>
       </c>
       <c r="D30">
-        <v>51332.84098848775</v>
+        <v>51332.84098848773</v>
       </c>
       <c r="E30">
-        <v>75674.46732196597</v>
+        <v>75674.46732196595</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -881,16 +881,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>13159.4663224277</v>
+        <v>13159.46632242771</v>
       </c>
       <c r="C31">
         <v>26416.7063859417</v>
       </c>
       <c r="D31">
-        <v>51332.84098848775</v>
+        <v>51332.84098848773</v>
       </c>
       <c r="E31">
-        <v>75674.46732196597</v>
+        <v>75674.46732196595</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -898,16 +898,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>13766.26357064493</v>
+        <v>13766.26357064494</v>
       </c>
       <c r="C32">
         <v>27486.08487998588</v>
       </c>
       <c r="D32">
-        <v>52761.1730445706</v>
+        <v>52761.17304457061</v>
       </c>
       <c r="E32">
-        <v>77197.39269271975</v>
+        <v>77197.39269271976</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -915,16 +915,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>13159.4663224277</v>
+        <v>13159.46632242771</v>
       </c>
       <c r="C33">
         <v>26416.7063859417</v>
       </c>
       <c r="D33">
-        <v>51332.84098848775</v>
+        <v>51332.84098848773</v>
       </c>
       <c r="E33">
-        <v>75674.46732196597</v>
+        <v>75674.46732196595</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -935,13 +935,13 @@
         <v>16048.30558773903</v>
       </c>
       <c r="C34">
-        <v>31030.9011443442</v>
+        <v>31030.90114434422</v>
       </c>
       <c r="D34">
-        <v>56771.29984302841</v>
+        <v>56771.29984302839</v>
       </c>
       <c r="E34">
-        <v>80979.10919362876</v>
+        <v>80979.10919362881</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -949,16 +949,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>16724.24569227068</v>
+        <v>16724.24569227069</v>
       </c>
       <c r="C35">
-        <v>31859.48015812402</v>
+        <v>31859.48015812403</v>
       </c>
       <c r="D35">
-        <v>57761.92568248011</v>
+        <v>57761.92568248013</v>
       </c>
       <c r="E35">
-        <v>81864.37424509332</v>
+        <v>81864.37424509334</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -969,13 +969,13 @@
         <v>11288.18819352623</v>
       </c>
       <c r="C36">
-        <v>23423.90515930007</v>
+        <v>23423.90515930008</v>
       </c>
       <c r="D36">
-        <v>48520.03976692874</v>
+        <v>48520.03976692873</v>
       </c>
       <c r="E36">
-        <v>73573.72644210029</v>
+        <v>73573.72644210033</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -986,13 +986,13 @@
         <v>13571.02006943212</v>
       </c>
       <c r="C37">
-        <v>26953.56847437097</v>
+        <v>26953.56847437099</v>
       </c>
       <c r="D37">
-        <v>51679.89563115334</v>
+        <v>51679.89563115335</v>
       </c>
       <c r="E37">
-        <v>75842.35440493577</v>
+        <v>75842.35440493576</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,13 +1003,13 @@
         <v>13571.02006943212</v>
       </c>
       <c r="C38">
-        <v>26953.56847437097</v>
+        <v>26953.56847437099</v>
       </c>
       <c r="D38">
-        <v>51679.89563115334</v>
+        <v>51679.89563115335</v>
       </c>
       <c r="E38">
-        <v>75842.35440493577</v>
+        <v>75842.35440493576</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1020,13 +1020,13 @@
         <v>15394.68582962837</v>
       </c>
       <c r="C39">
-        <v>29960.00680035385</v>
+        <v>29960.00680035389</v>
       </c>
       <c r="D39">
-        <v>55401.48138061121</v>
+        <v>55401.48138061124</v>
       </c>
       <c r="E39">
-        <v>79600.66228626171</v>
+        <v>79600.66228626166</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1034,16 +1034,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>16724.24569227068</v>
+        <v>16724.24569227069</v>
       </c>
       <c r="C40">
-        <v>31859.48015812402</v>
+        <v>31859.48015812403</v>
       </c>
       <c r="D40">
-        <v>57761.92568248011</v>
+        <v>57761.92568248013</v>
       </c>
       <c r="E40">
-        <v>81864.37424509332</v>
+        <v>81864.37424509334</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1051,16 +1051,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>16724.24569227068</v>
+        <v>16724.24569227069</v>
       </c>
       <c r="C41">
-        <v>31859.48015812402</v>
+        <v>31859.48015812403</v>
       </c>
       <c r="D41">
-        <v>57761.92568248011</v>
+        <v>57761.92568248013</v>
       </c>
       <c r="E41">
-        <v>81864.37424509332</v>
+        <v>81864.37424509334</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1068,16 +1068,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>12583.35491242556</v>
+        <v>12583.35491242555</v>
       </c>
       <c r="C42">
-        <v>25582.84016466325</v>
+        <v>25582.84016466326</v>
       </c>
       <c r="D42">
         <v>50708.1050403349</v>
       </c>
       <c r="E42">
-        <v>75378.9243004077</v>
+        <v>75378.92430040771</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1088,10 +1088,10 @@
         <v>13189.93457576676</v>
       </c>
       <c r="C43">
-        <v>26654.30769909669</v>
+        <v>26654.3076990967</v>
       </c>
       <c r="D43">
-        <v>52140.83622195498</v>
+        <v>52140.83622195503</v>
       </c>
       <c r="E43">
         <v>76905.73979141729</v>
@@ -1105,13 +1105,13 @@
         <v>13610.25062868977</v>
       </c>
       <c r="C44">
-        <v>27085.10968617579</v>
+        <v>27085.10968617581</v>
       </c>
       <c r="D44">
-        <v>52372.83246956229</v>
+        <v>52372.83246956228</v>
       </c>
       <c r="E44">
-        <v>76963.54564679418</v>
+        <v>76963.54564679415</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1122,13 +1122,13 @@
         <v>10994.58037628047</v>
       </c>
       <c r="C45">
-        <v>23095.54884326657</v>
+        <v>23095.54884326656</v>
       </c>
       <c r="D45">
         <v>47931.45482428244</v>
       </c>
       <c r="E45">
-        <v>72637.03655764475</v>
+        <v>72637.03655764472</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1139,13 +1139,13 @@
         <v>14205.32531047675</v>
       </c>
       <c r="C46">
-        <v>28036.22313290396</v>
+        <v>28036.22313290397</v>
       </c>
       <c r="D46">
-        <v>53107.91398396806</v>
+        <v>53107.91398396808</v>
       </c>
       <c r="E46">
-        <v>77357.8452253291</v>
+        <v>77357.84522532909</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>11812.30427987007</v>
       </c>
       <c r="C47">
-        <v>24433.50910364855</v>
+        <v>24433.50910364856</v>
       </c>
       <c r="D47">
         <v>49936.27876369303</v>
@@ -1170,16 +1170,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>11542.04849388493</v>
+        <v>11542.04849388494</v>
       </c>
       <c r="C48">
-        <v>24126.47397668459</v>
+        <v>24126.47397668458</v>
       </c>
       <c r="D48">
-        <v>49367.71394828745</v>
+        <v>49367.71394828741</v>
       </c>
       <c r="E48">
-        <v>74226.42862785512</v>
+        <v>74226.42862785509</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1190,13 +1190,13 @@
         <v>11145.7921738331</v>
       </c>
       <c r="C49">
-        <v>21526.4102484768</v>
+        <v>21526.41024847681</v>
       </c>
       <c r="D49">
-        <v>39320.32956341672</v>
+        <v>39320.32956341674</v>
       </c>
       <c r="E49">
-        <v>55437.67010026202</v>
+        <v>55437.67010026201</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1207,10 +1207,10 @@
         <v>10000.76815952434</v>
       </c>
       <c r="C50">
-        <v>19900.76444497656</v>
+        <v>19900.76444497657</v>
       </c>
       <c r="D50">
-        <v>38506.44887094674</v>
+        <v>38506.44887094673</v>
       </c>
       <c r="E50">
         <v>55856.90403934951</v>
@@ -1221,16 +1221,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>9008.08968561385</v>
+        <v>9008.089685613844</v>
       </c>
       <c r="C51">
-        <v>18348.01877914534</v>
+        <v>18348.01877914535</v>
       </c>
       <c r="D51">
-        <v>35806.42492706427</v>
+        <v>35806.42492706428</v>
       </c>
       <c r="E51">
-        <v>51021.48140197503</v>
+        <v>51021.481401975</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1238,16 +1238,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>9939.330268103657</v>
+        <v>9939.330268103658</v>
       </c>
       <c r="C52">
-        <v>19955.00608598553</v>
+        <v>19955.00608598551</v>
       </c>
       <c r="D52">
-        <v>37907.345772743</v>
+        <v>37907.34577274301</v>
       </c>
       <c r="E52">
-        <v>53985.23907854405</v>
+        <v>53985.23907854407</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1255,13 +1255,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>8935.838664015775</v>
+        <v>8935.838664015777</v>
       </c>
       <c r="C53">
         <v>18273.90457762538</v>
       </c>
       <c r="D53">
-        <v>35847.78236180611</v>
+        <v>35847.78236180612</v>
       </c>
       <c r="E53">
         <v>51346.02106984168</v>
@@ -1278,10 +1278,10 @@
         <v>17671.68946731697</v>
       </c>
       <c r="D54">
-        <v>34753.55296708543</v>
+        <v>34753.55296708542</v>
       </c>
       <c r="E54">
-        <v>49444.31042709398</v>
+        <v>49444.31042709396</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1292,10 +1292,10 @@
         <v>10000.76815952434</v>
       </c>
       <c r="C55">
-        <v>19900.76444497656</v>
+        <v>19900.76444497657</v>
       </c>
       <c r="D55">
-        <v>38506.44887094674</v>
+        <v>38506.44887094673</v>
       </c>
       <c r="E55">
         <v>55856.90403934951</v>
@@ -1306,16 +1306,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>13011.55451639716</v>
+        <v>13011.55451639715</v>
       </c>
       <c r="C56">
         <v>24334.26182256793</v>
       </c>
       <c r="D56">
-        <v>43154.74465580795</v>
+        <v>43154.74465580794</v>
       </c>
       <c r="E56">
-        <v>60827.90530359106</v>
+        <v>60827.90530359104</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1323,16 +1323,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>9157.376754515715</v>
+        <v>9157.376754515719</v>
       </c>
       <c r="C57">
-        <v>18477.77200420997</v>
+        <v>18477.77200420998</v>
       </c>
       <c r="D57">
         <v>36849.7351778209</v>
       </c>
       <c r="E57">
-        <v>53810.65606673705</v>
+        <v>53810.65606673707</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1343,13 +1343,13 @@
         <v>10699.53914306562</v>
       </c>
       <c r="C58">
-        <v>20977.89671248302</v>
+        <v>20977.89671248303</v>
       </c>
       <c r="D58">
-        <v>41071.75250202943</v>
+        <v>41071.75250202942</v>
       </c>
       <c r="E58">
-        <v>60895.96021427897</v>
+        <v>60895.96021427895</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1360,13 +1360,13 @@
         <v>10699.53914306562</v>
       </c>
       <c r="C59">
-        <v>20977.89671248302</v>
+        <v>20977.89671248303</v>
       </c>
       <c r="D59">
-        <v>41071.75250202943</v>
+        <v>41071.75250202942</v>
       </c>
       <c r="E59">
-        <v>60895.96021427897</v>
+        <v>60895.96021427895</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1380,7 +1380,7 @@
         <v>14752.99110924554</v>
       </c>
       <c r="D60">
-        <v>32993.56028398259</v>
+        <v>32993.56028398262</v>
       </c>
       <c r="E60">
         <v>50503.73872459753</v>
@@ -1397,7 +1397,7 @@
         <v>14752.99110924554</v>
       </c>
       <c r="D61">
-        <v>32993.56028398259</v>
+        <v>32993.56028398262</v>
       </c>
       <c r="E61">
         <v>50503.73872459753</v>
@@ -1408,13 +1408,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>4052.443848838793</v>
+        <v>4052.443848838792</v>
       </c>
       <c r="C62">
         <v>9834.012096588931</v>
       </c>
       <c r="D62">
-        <v>28387.47037069369</v>
+        <v>28387.47037069371</v>
       </c>
       <c r="E62">
         <v>46905.41509047598</v>
@@ -1425,13 +1425,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>4052.443848838793</v>
+        <v>4052.443848838792</v>
       </c>
       <c r="C63">
         <v>9834.012096588931</v>
       </c>
       <c r="D63">
-        <v>28387.47037069369</v>
+        <v>28387.47037069371</v>
       </c>
       <c r="E63">
         <v>46905.41509047598</v>
@@ -1442,16 +1442,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>3129.82886367743</v>
+        <v>3129.828863677431</v>
       </c>
       <c r="C64">
-        <v>8336.974437506035</v>
+        <v>8336.974437506033</v>
       </c>
       <c r="D64">
-        <v>26177.66281056292</v>
+        <v>26177.66281056291</v>
       </c>
       <c r="E64">
-        <v>43922.22864172039</v>
+        <v>43922.22864172034</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1459,16 +1459,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>3129.82886367743</v>
+        <v>3129.828863677431</v>
       </c>
       <c r="C65">
-        <v>8336.974437506035</v>
+        <v>8336.974437506033</v>
       </c>
       <c r="D65">
-        <v>26177.66281056292</v>
+        <v>26177.66281056291</v>
       </c>
       <c r="E65">
-        <v>43922.22864172039</v>
+        <v>43922.22864172034</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1476,16 +1476,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>11268.91674438761</v>
+        <v>11268.91674438762</v>
       </c>
       <c r="C66">
         <v>22262.84664516216</v>
       </c>
       <c r="D66">
-        <v>46434.98845313201</v>
+        <v>46434.98845313203</v>
       </c>
       <c r="E66">
-        <v>71162.03891367573</v>
+        <v>71162.03891367576</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1499,7 +1499,7 @@
         <v>23145.23593431942</v>
       </c>
       <c r="D67">
-        <v>47821.76888262037</v>
+        <v>47821.7688826204</v>
       </c>
       <c r="E67">
         <v>72809.52740436693</v>
@@ -1510,16 +1510,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>11268.91674438761</v>
+        <v>11268.91674438762</v>
       </c>
       <c r="C68">
         <v>22262.84664516216</v>
       </c>
       <c r="D68">
-        <v>46434.98845313201</v>
+        <v>46434.98845313203</v>
       </c>
       <c r="E68">
-        <v>71162.03891367573</v>
+        <v>71162.03891367576</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1533,7 +1533,7 @@
         <v>23145.23593431942</v>
       </c>
       <c r="D69">
-        <v>47821.76888262037</v>
+        <v>47821.7688826204</v>
       </c>
       <c r="E69">
         <v>72809.52740436693</v>
@@ -1550,7 +1550,7 @@
         <v>23145.23593431942</v>
       </c>
       <c r="D70">
-        <v>47821.76888262037</v>
+        <v>47821.7688826204</v>
       </c>
       <c r="E70">
         <v>72809.52740436693</v>
@@ -1567,10 +1567,10 @@
         <v>24966.21710533736</v>
       </c>
       <c r="D71">
-        <v>50647.48570229186</v>
+        <v>50647.48570229187</v>
       </c>
       <c r="E71">
-        <v>75832.11141013945</v>
+        <v>75832.11141013948</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1584,7 +1584,7 @@
         <v>23145.23593431942</v>
       </c>
       <c r="D72">
-        <v>47821.76888262037</v>
+        <v>47821.7688826204</v>
       </c>
       <c r="E72">
         <v>72809.52740436693</v>
@@ -1601,7 +1601,7 @@
         <v>23145.23593431942</v>
       </c>
       <c r="D73">
-        <v>47821.76888262037</v>
+        <v>47821.7688826204</v>
       </c>
       <c r="E73">
         <v>72809.52740436693</v>
@@ -1618,7 +1618,7 @@
         <v>23145.23593431942</v>
       </c>
       <c r="D74">
-        <v>47821.76888262037</v>
+        <v>47821.7688826204</v>
       </c>
       <c r="E74">
         <v>72809.52740436693</v>
@@ -1635,10 +1635,10 @@
         <v>17228.88025759239</v>
       </c>
       <c r="D75">
-        <v>39249.15805283057</v>
+        <v>39249.15805283056</v>
       </c>
       <c r="E75">
-        <v>62970.18571545821</v>
+        <v>62970.18571545827</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1652,7 +1652,7 @@
         <v>23145.23593431942</v>
       </c>
       <c r="D76">
-        <v>47821.76888262037</v>
+        <v>47821.7688826204</v>
       </c>
       <c r="E76">
         <v>72809.52740436693</v>
@@ -1663,16 +1663,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>11013.74074127008</v>
+        <v>11013.74074127007</v>
       </c>
       <c r="C77">
         <v>22173.26486560104</v>
       </c>
       <c r="D77">
-        <v>46923.58470549936</v>
+        <v>46923.58470549939</v>
       </c>
       <c r="E77">
-        <v>72151.00547551272</v>
+        <v>72151.00547551273</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1680,16 +1680,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>11013.74074127008</v>
+        <v>11013.74074127007</v>
       </c>
       <c r="C78">
         <v>22173.26486560104</v>
       </c>
       <c r="D78">
-        <v>46923.58470549936</v>
+        <v>46923.58470549939</v>
       </c>
       <c r="E78">
-        <v>72151.00547551272</v>
+        <v>72151.00547551273</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1697,16 +1697,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>11013.74074127008</v>
+        <v>11013.74074127007</v>
       </c>
       <c r="C79">
         <v>22173.26486560104</v>
       </c>
       <c r="D79">
-        <v>46923.58470549936</v>
+        <v>46923.58470549939</v>
       </c>
       <c r="E79">
-        <v>72151.00547551272</v>
+        <v>72151.00547551273</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1714,16 +1714,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>11013.74074127008</v>
+        <v>11013.74074127007</v>
       </c>
       <c r="C80">
         <v>22173.26486560104</v>
       </c>
       <c r="D80">
-        <v>46923.58470549936</v>
+        <v>46923.58470549939</v>
       </c>
       <c r="E80">
-        <v>72151.00547551272</v>
+        <v>72151.00547551273</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1731,16 +1731,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>14404.02569662845</v>
+        <v>14404.02569662843</v>
       </c>
       <c r="C81">
         <v>27735.82252791569</v>
       </c>
       <c r="D81">
-        <v>52198.07289725238</v>
+        <v>52198.07289725239</v>
       </c>
       <c r="E81">
-        <v>75736.61433209856</v>
+        <v>75736.6143320986</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1748,16 +1748,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>14404.02569662845</v>
+        <v>14404.02569662843</v>
       </c>
       <c r="C82">
         <v>27735.82252791569</v>
       </c>
       <c r="D82">
-        <v>52198.07289725238</v>
+        <v>52198.07289725239</v>
       </c>
       <c r="E82">
-        <v>75736.61433209856</v>
+        <v>75736.6143320986</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1765,16 +1765,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>9728.131878168686</v>
+        <v>9728.131878168679</v>
       </c>
       <c r="C83">
-        <v>19858.76094999345</v>
+        <v>19858.76094999344</v>
       </c>
       <c r="D83">
-        <v>42449.32757886052</v>
+        <v>42449.32757886048</v>
       </c>
       <c r="E83">
-        <v>65393.41469537919</v>
+        <v>65393.41469537922</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1782,16 +1782,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>9728.131878168686</v>
+        <v>9728.131878168679</v>
       </c>
       <c r="C84">
-        <v>19858.76094999345</v>
+        <v>19858.76094999344</v>
       </c>
       <c r="D84">
-        <v>42449.32757886052</v>
+        <v>42449.32757886048</v>
       </c>
       <c r="E84">
-        <v>65393.41469537919</v>
+        <v>65393.41469537922</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1802,10 +1802,10 @@
         <v>13996.40465072512</v>
       </c>
       <c r="C85">
-        <v>27794.83799559365</v>
+        <v>27794.83799559364</v>
       </c>
       <c r="D85">
-        <v>52321.11523510722</v>
+        <v>52321.11523510719</v>
       </c>
       <c r="E85">
         <v>75509.73041717564</v>
@@ -1819,10 +1819,10 @@
         <v>13996.40465072512</v>
       </c>
       <c r="C86">
-        <v>27794.83799559365</v>
+        <v>27794.83799559364</v>
       </c>
       <c r="D86">
-        <v>52321.11523510722</v>
+        <v>52321.11523510719</v>
       </c>
       <c r="E86">
         <v>75509.73041717564</v>
@@ -1836,13 +1836,13 @@
         <v>14285.72625040134</v>
       </c>
       <c r="C87">
-        <v>28331.47770652463</v>
+        <v>28331.47770652465</v>
       </c>
       <c r="D87">
-        <v>53497.77012358731</v>
+        <v>53497.77012358735</v>
       </c>
       <c r="E87">
-        <v>76992.39299535923</v>
+        <v>76992.39299535919</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1853,13 +1853,13 @@
         <v>14285.72625040134</v>
       </c>
       <c r="C88">
-        <v>28331.47770652463</v>
+        <v>28331.47770652465</v>
       </c>
       <c r="D88">
-        <v>53497.77012358731</v>
+        <v>53497.77012358735</v>
       </c>
       <c r="E88">
-        <v>76992.39299535923</v>
+        <v>76992.39299535919</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1870,13 +1870,13 @@
         <v>14285.72625040134</v>
       </c>
       <c r="C89">
-        <v>28331.47770652463</v>
+        <v>28331.47770652465</v>
       </c>
       <c r="D89">
-        <v>53497.77012358731</v>
+        <v>53497.77012358735</v>
       </c>
       <c r="E89">
-        <v>76992.39299535923</v>
+        <v>76992.39299535919</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1887,10 +1887,10 @@
         <v>25769.4076719054</v>
       </c>
       <c r="C90">
-        <v>43952.83913521482</v>
+        <v>43952.83913521485</v>
       </c>
       <c r="D90">
-        <v>67718.2778289546</v>
+        <v>67718.27782895461</v>
       </c>
       <c r="E90">
         <v>87517.79189345572</v>
@@ -1904,10 +1904,10 @@
         <v>25769.4076719054</v>
       </c>
       <c r="C91">
-        <v>43952.83913521482</v>
+        <v>43952.83913521485</v>
       </c>
       <c r="D91">
-        <v>67718.2778289546</v>
+        <v>67718.27782895461</v>
       </c>
       <c r="E91">
         <v>87517.79189345572</v>
@@ -1921,10 +1921,10 @@
         <v>25769.4076719054</v>
       </c>
       <c r="C92">
-        <v>43952.83913521482</v>
+        <v>43952.83913521485</v>
       </c>
       <c r="D92">
-        <v>67718.2778289546</v>
+        <v>67718.27782895461</v>
       </c>
       <c r="E92">
         <v>87517.79189345572</v>
@@ -1938,10 +1938,10 @@
         <v>25769.4076719054</v>
       </c>
       <c r="C93">
-        <v>43952.83913521482</v>
+        <v>43952.83913521485</v>
       </c>
       <c r="D93">
-        <v>67718.2778289546</v>
+        <v>67718.27782895461</v>
       </c>
       <c r="E93">
         <v>87517.79189345572</v>
@@ -1961,7 +1961,7 @@
         <v>69715.20382014812</v>
       </c>
       <c r="E94">
-        <v>88882.20247369574</v>
+        <v>88882.20247369571</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1972,10 +1972,10 @@
         <v>25769.4076719054</v>
       </c>
       <c r="C95">
-        <v>43952.83913521482</v>
+        <v>43952.83913521485</v>
       </c>
       <c r="D95">
-        <v>67718.2778289546</v>
+        <v>67718.27782895461</v>
       </c>
       <c r="E95">
         <v>87517.79189345572</v>
@@ -1989,10 +1989,10 @@
         <v>25769.4076719054</v>
       </c>
       <c r="C96">
-        <v>43952.83913521482</v>
+        <v>43952.83913521485</v>
       </c>
       <c r="D96">
-        <v>67718.2778289546</v>
+        <v>67718.27782895461</v>
       </c>
       <c r="E96">
         <v>87517.79189345572</v>
@@ -2006,10 +2006,10 @@
         <v>25769.4076719054</v>
       </c>
       <c r="C97">
-        <v>43952.83913521482</v>
+        <v>43952.83913521485</v>
       </c>
       <c r="D97">
-        <v>67718.2778289546</v>
+        <v>67718.27782895461</v>
       </c>
       <c r="E97">
         <v>87517.79189345572</v>
@@ -2020,16 +2020,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>25048.14770193758</v>
+        <v>25048.14770193759</v>
       </c>
       <c r="C98">
         <v>44221.82004614957</v>
       </c>
       <c r="D98">
-        <v>69225.59691437551</v>
+        <v>69225.59691437552</v>
       </c>
       <c r="E98">
-        <v>88925.27409989215</v>
+        <v>88925.27409989221</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2037,16 +2037,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>25048.14770193758</v>
+        <v>25048.14770193759</v>
       </c>
       <c r="C99">
         <v>44221.82004614957</v>
       </c>
       <c r="D99">
-        <v>69225.59691437551</v>
+        <v>69225.59691437552</v>
       </c>
       <c r="E99">
-        <v>88925.27409989215</v>
+        <v>88925.27409989221</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2054,13 +2054,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>25026.4126656544</v>
+        <v>25026.41266565439</v>
       </c>
       <c r="C100">
         <v>43293.20311383971</v>
       </c>
       <c r="D100">
-        <v>67641.74577161542</v>
+        <v>67641.7457716155</v>
       </c>
       <c r="E100">
         <v>87718.66904930404</v>
@@ -2071,13 +2071,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>25026.4126656544</v>
+        <v>25026.41266565439</v>
       </c>
       <c r="C101">
         <v>43293.20311383971</v>
       </c>
       <c r="D101">
-        <v>67641.74577161542</v>
+        <v>67641.7457716155</v>
       </c>
       <c r="E101">
         <v>87718.66904930404</v>
@@ -2088,13 +2088,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>25026.4126656544</v>
+        <v>25026.41266565439</v>
       </c>
       <c r="C102">
         <v>43293.20311383971</v>
       </c>
       <c r="D102">
-        <v>67641.74577161542</v>
+        <v>67641.7457716155</v>
       </c>
       <c r="E102">
         <v>87718.66904930404</v>
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>24075.42048258795</v>
+        <v>24075.42048258796</v>
       </c>
       <c r="C103">
-        <v>43034.81809925433</v>
+        <v>43034.81809925434</v>
       </c>
       <c r="D103">
-        <v>68461.17970288385</v>
+        <v>68461.17970288388</v>
       </c>
       <c r="E103">
-        <v>88427.18624502637</v>
+        <v>88427.18624502639</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,16 +2122,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>24075.42048258795</v>
+        <v>24075.42048258796</v>
       </c>
       <c r="C104">
-        <v>43034.81809925433</v>
+        <v>43034.81809925434</v>
       </c>
       <c r="D104">
-        <v>68461.17970288385</v>
+        <v>68461.17970288388</v>
       </c>
       <c r="E104">
-        <v>88427.18624502637</v>
+        <v>88427.18624502639</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2145,10 +2145,10 @@
         <v>42431.89851597323</v>
       </c>
       <c r="D105">
-        <v>68236.80223081657</v>
+        <v>68236.80223081661</v>
       </c>
       <c r="E105">
-        <v>88515.65642964721</v>
+        <v>88515.65642964722</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2159,13 +2159,13 @@
         <v>25933.66069920071</v>
       </c>
       <c r="C106">
-        <v>45871.88639704512</v>
+        <v>45871.88639704514</v>
       </c>
       <c r="D106">
-        <v>71327.09575668897</v>
+        <v>71327.09575668896</v>
       </c>
       <c r="E106">
-        <v>90580.36891655362</v>
+        <v>90580.36891655363</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2176,13 +2176,13 @@
         <v>25933.66069920071</v>
       </c>
       <c r="C107">
-        <v>45871.88639704512</v>
+        <v>45871.88639704514</v>
       </c>
       <c r="D107">
-        <v>71327.09575668897</v>
+        <v>71327.09575668896</v>
       </c>
       <c r="E107">
-        <v>90580.36891655362</v>
+        <v>90580.36891655363</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2193,13 +2193,13 @@
         <v>25485.21897801112</v>
       </c>
       <c r="C108">
-        <v>45253.11163653094</v>
+        <v>45253.1116365309</v>
       </c>
       <c r="D108">
-        <v>71101.86429500151</v>
+        <v>71101.86429500149</v>
       </c>
       <c r="E108">
-        <v>90658.5627414661</v>
+        <v>90658.56274146614</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2207,16 +2207,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>23538.14656552406</v>
+        <v>23538.14656552405</v>
       </c>
       <c r="C109">
         <v>42627.4579293771</v>
       </c>
       <c r="D109">
-        <v>68209.00334674364</v>
+        <v>68209.00334674362</v>
       </c>
       <c r="E109">
-        <v>88285.22936498327</v>
+        <v>88285.22936498334</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2224,16 +2224,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>23538.14656552406</v>
+        <v>23538.14656552405</v>
       </c>
       <c r="C110">
         <v>42627.4579293771</v>
       </c>
       <c r="D110">
-        <v>68209.00334674364</v>
+        <v>68209.00334674362</v>
       </c>
       <c r="E110">
-        <v>88285.22936498327</v>
+        <v>88285.22936498334</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2241,16 +2241,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>23538.14656552406</v>
+        <v>23538.14656552405</v>
       </c>
       <c r="C111">
         <v>42627.4579293771</v>
       </c>
       <c r="D111">
-        <v>68209.00334674364</v>
+        <v>68209.00334674362</v>
       </c>
       <c r="E111">
-        <v>88285.22936498327</v>
+        <v>88285.22936498334</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2258,16 +2258,16 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>24333.19639779314</v>
+        <v>24333.19639779316</v>
       </c>
       <c r="C112">
-        <v>43668.01471716462</v>
+        <v>43668.0147171646</v>
       </c>
       <c r="D112">
-        <v>69017.25015766901</v>
+        <v>69017.25015766903</v>
       </c>
       <c r="E112">
-        <v>88818.56403908454</v>
+        <v>88818.56403908457</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2275,16 +2275,16 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>23227.5203489759</v>
+        <v>23227.52034897591</v>
       </c>
       <c r="C113">
         <v>41846.38569917192</v>
       </c>
       <c r="D113">
-        <v>67888.84419737892</v>
+        <v>67888.84419737896</v>
       </c>
       <c r="E113">
-        <v>88431.05052082663</v>
+        <v>88431.05052082658</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2292,13 +2292,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>24182.97089266247</v>
+        <v>24182.97089266246</v>
       </c>
       <c r="C114">
-        <v>43304.45209542606</v>
+        <v>43304.45209542605</v>
       </c>
       <c r="D114">
-        <v>69405.76790972518</v>
+        <v>69405.76790972515</v>
       </c>
       <c r="E114">
         <v>89608.41258355598</v>
@@ -2309,16 +2309,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>24333.19639779314</v>
+        <v>24333.19639779316</v>
       </c>
       <c r="C115">
-        <v>43668.01471716462</v>
+        <v>43668.0147171646</v>
       </c>
       <c r="D115">
-        <v>69017.25015766901</v>
+        <v>69017.25015766903</v>
       </c>
       <c r="E115">
-        <v>88818.56403908454</v>
+        <v>88818.56403908457</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2326,16 +2326,16 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>24333.19639779314</v>
+        <v>24333.19639779316</v>
       </c>
       <c r="C116">
-        <v>43668.01471716462</v>
+        <v>43668.0147171646</v>
       </c>
       <c r="D116">
-        <v>69017.25015766901</v>
+        <v>69017.25015766903</v>
       </c>
       <c r="E116">
-        <v>88818.56403908454</v>
+        <v>88818.56403908457</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2343,16 +2343,16 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>23227.5203489759</v>
+        <v>23227.52034897591</v>
       </c>
       <c r="C117">
         <v>41846.38569917192</v>
       </c>
       <c r="D117">
-        <v>67888.84419737892</v>
+        <v>67888.84419737896</v>
       </c>
       <c r="E117">
-        <v>88431.05052082663</v>
+        <v>88431.05052082658</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2363,10 +2363,10 @@
         <v>25141.19608568545</v>
       </c>
       <c r="C118">
-        <v>44754.50105493996</v>
+        <v>44754.50105493994</v>
       </c>
       <c r="D118">
-        <v>70872.93958362118</v>
+        <v>70872.93958362113</v>
       </c>
       <c r="E118">
         <v>90711.29302185518</v>
@@ -2377,16 +2377,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>21589.8408966408</v>
+        <v>21589.84089664081</v>
       </c>
       <c r="C119">
-        <v>39843.69688093857</v>
+        <v>39843.69688093855</v>
       </c>
       <c r="D119">
-        <v>66250.0601001742</v>
+        <v>66250.06010017417</v>
       </c>
       <c r="E119">
-        <v>87385.71474804015</v>
+        <v>87385.71474804021</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,13 +2394,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>24993.23646578959</v>
+        <v>24993.2364657896</v>
       </c>
       <c r="C120">
-        <v>43909.97738416351</v>
+        <v>43909.97738416348</v>
       </c>
       <c r="D120">
-        <v>68356.86380699076</v>
+        <v>68356.86380699075</v>
       </c>
       <c r="E120">
         <v>88073.23825024592</v>
@@ -2411,13 +2411,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>24993.23646578959</v>
+        <v>24993.2364657896</v>
       </c>
       <c r="C121">
-        <v>43909.97738416351</v>
+        <v>43909.97738416348</v>
       </c>
       <c r="D121">
-        <v>68356.86380699076</v>
+        <v>68356.86380699075</v>
       </c>
       <c r="E121">
         <v>88073.23825024592</v>
@@ -2428,16 +2428,16 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>25217.11989581052</v>
+        <v>25217.11989581051</v>
       </c>
       <c r="C122">
-        <v>44371.01213629089</v>
+        <v>44371.01213629088</v>
       </c>
       <c r="D122">
-        <v>69167.82294136881</v>
+        <v>69167.8229413688</v>
       </c>
       <c r="E122">
-        <v>88832.07453148294</v>
+        <v>88832.07453148288</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2445,16 +2445,16 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>25217.11989581052</v>
+        <v>25217.11989581051</v>
       </c>
       <c r="C123">
-        <v>44371.01213629089</v>
+        <v>44371.01213629088</v>
       </c>
       <c r="D123">
-        <v>69167.82294136881</v>
+        <v>69167.8229413688</v>
       </c>
       <c r="E123">
-        <v>88832.07453148294</v>
+        <v>88832.07453148288</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2462,16 +2462,16 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>25217.11989581052</v>
+        <v>25217.11989581051</v>
       </c>
       <c r="C124">
-        <v>44371.01213629089</v>
+        <v>44371.01213629088</v>
       </c>
       <c r="D124">
-        <v>69167.82294136881</v>
+        <v>69167.8229413688</v>
       </c>
       <c r="E124">
-        <v>88832.07453148294</v>
+        <v>88832.07453148288</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2485,10 +2485,10 @@
         <v>44426.72902346119</v>
       </c>
       <c r="D125">
-        <v>69110.89503467076</v>
+        <v>69110.89503467073</v>
       </c>
       <c r="E125">
-        <v>88360.68519739219</v>
+        <v>88360.68519739216</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2496,13 +2496,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>26002.69938177544</v>
+        <v>26002.69938177543</v>
       </c>
       <c r="C126">
-        <v>45900.33095585139</v>
+        <v>45900.33095585135</v>
       </c>
       <c r="D126">
-        <v>70591.82712314214</v>
+        <v>70591.82712314212</v>
       </c>
       <c r="E126">
         <v>89538.13498699195</v>
@@ -2513,16 +2513,16 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>26939.05937606571</v>
+        <v>26939.05937606569</v>
       </c>
       <c r="C127">
-        <v>47399.74607900364</v>
+        <v>47399.74607900368</v>
       </c>
       <c r="D127">
-        <v>71584.33852219023</v>
+        <v>71584.33852219026</v>
       </c>
       <c r="E127">
-        <v>90239.17162654572</v>
+        <v>90239.17162654575</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2530,13 +2530,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>27521.07206178434</v>
+        <v>27521.07206178433</v>
       </c>
       <c r="C128">
-        <v>46460.89038708047</v>
+        <v>46460.89038708053</v>
       </c>
       <c r="D128">
-        <v>70293.19928261409</v>
+        <v>70293.19928261406</v>
       </c>
       <c r="E128">
         <v>89600.59150057063</v>
@@ -2547,13 +2547,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>27521.07206178434</v>
+        <v>27521.07206178433</v>
       </c>
       <c r="C129">
-        <v>46460.89038708047</v>
+        <v>46460.89038708053</v>
       </c>
       <c r="D129">
-        <v>70293.19928261409</v>
+        <v>70293.19928261406</v>
       </c>
       <c r="E129">
         <v>89600.59150057063</v>
@@ -2564,16 +2564,16 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>25652.31553366194</v>
+        <v>25652.31553366195</v>
       </c>
       <c r="C130">
-        <v>43530.2820896355</v>
+        <v>43530.28208963553</v>
       </c>
       <c r="D130">
-        <v>66959.20117393797</v>
+        <v>66959.201173938</v>
       </c>
       <c r="E130">
-        <v>86911.81308532666</v>
+        <v>86911.81308532668</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2581,16 +2581,16 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>25652.31553366194</v>
+        <v>25652.31553366195</v>
       </c>
       <c r="C131">
-        <v>43530.2820896355</v>
+        <v>43530.28208963553</v>
       </c>
       <c r="D131">
-        <v>66959.20117393797</v>
+        <v>66959.201173938</v>
       </c>
       <c r="E131">
-        <v>86911.81308532666</v>
+        <v>86911.81308532668</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2598,16 +2598,16 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>25652.31553366194</v>
+        <v>25652.31553366195</v>
       </c>
       <c r="C132">
-        <v>43530.2820896355</v>
+        <v>43530.28208963553</v>
       </c>
       <c r="D132">
-        <v>66959.20117393797</v>
+        <v>66959.201173938</v>
       </c>
       <c r="E132">
-        <v>86911.81308532666</v>
+        <v>86911.81308532668</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2615,16 +2615,16 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>25652.31553366194</v>
+        <v>25652.31553366195</v>
       </c>
       <c r="C133">
-        <v>43530.2820896355</v>
+        <v>43530.28208963553</v>
       </c>
       <c r="D133">
-        <v>66959.20117393797</v>
+        <v>66959.201173938</v>
       </c>
       <c r="E133">
-        <v>86911.81308532666</v>
+        <v>86911.81308532668</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2632,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>26633.17727639737</v>
+        <v>26633.17727639735</v>
       </c>
       <c r="C134">
         <v>45039.199769823</v>
@@ -2649,13 +2649,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>24945.23223905195</v>
+        <v>24945.23223905197</v>
       </c>
       <c r="C135">
-        <v>42665.30545177403</v>
+        <v>42665.3054517741</v>
       </c>
       <c r="D135">
-        <v>66149.56613434022</v>
+        <v>66149.56613434023</v>
       </c>
       <c r="E135">
         <v>86349.06114074397</v>
@@ -2669,10 +2669,10 @@
         <v>24854.89592836776</v>
       </c>
       <c r="C136">
-        <v>42489.10289769418</v>
+        <v>42489.10289769421</v>
       </c>
       <c r="D136">
-        <v>66248.4772705092</v>
+        <v>66248.47727050923</v>
       </c>
       <c r="E136">
         <v>86802.83255049135</v>
@@ -2686,10 +2686,10 @@
         <v>24854.89592836776</v>
       </c>
       <c r="C137">
-        <v>42489.10289769418</v>
+        <v>42489.10289769421</v>
       </c>
       <c r="D137">
-        <v>66248.4772705092</v>
+        <v>66248.47727050923</v>
       </c>
       <c r="E137">
         <v>86802.83255049135</v>
@@ -2703,10 +2703,10 @@
         <v>24854.89592836776</v>
       </c>
       <c r="C138">
-        <v>42489.10289769418</v>
+        <v>42489.10289769421</v>
       </c>
       <c r="D138">
-        <v>66248.4772705092</v>
+        <v>66248.47727050923</v>
       </c>
       <c r="E138">
         <v>86802.83255049135</v>
@@ -2717,16 +2717,16 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>24677.5691431766</v>
+        <v>24677.56914317658</v>
       </c>
       <c r="C139">
-        <v>42412.23804921055</v>
+        <v>42412.23804921058</v>
       </c>
       <c r="D139">
-        <v>66348.74535567725</v>
+        <v>66348.74535567727</v>
       </c>
       <c r="E139">
-        <v>86740.59531983423</v>
+        <v>86740.59531983425</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2734,16 +2734,16 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>24877.65930140366</v>
+        <v>24877.65930140367</v>
       </c>
       <c r="C140">
-        <v>42536.32840348606</v>
+        <v>42536.32840348609</v>
       </c>
       <c r="D140">
-        <v>66667.33865855358</v>
+        <v>66667.33865855362</v>
       </c>
       <c r="E140">
-        <v>87431.46916535964</v>
+        <v>87431.46916535962</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2751,16 +2751,16 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>24677.5691431766</v>
+        <v>24677.56914317658</v>
       </c>
       <c r="C141">
-        <v>42412.23804921055</v>
+        <v>42412.23804921058</v>
       </c>
       <c r="D141">
-        <v>66348.74535567725</v>
+        <v>66348.74535567727</v>
       </c>
       <c r="E141">
-        <v>86740.59531983423</v>
+        <v>86740.59531983425</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2768,16 +2768,16 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>24677.5691431766</v>
+        <v>24677.56914317658</v>
       </c>
       <c r="C142">
-        <v>42412.23804921055</v>
+        <v>42412.23804921058</v>
       </c>
       <c r="D142">
-        <v>66348.74535567725</v>
+        <v>66348.74535567727</v>
       </c>
       <c r="E142">
-        <v>86740.59531983423</v>
+        <v>86740.59531983425</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2788,10 +2788,10 @@
         <v>25668.64697304494</v>
       </c>
       <c r="C143">
-        <v>43846.66120159114</v>
+        <v>43846.66120159116</v>
       </c>
       <c r="D143">
-        <v>67601.8040912689</v>
+        <v>67601.80409126889</v>
       </c>
       <c r="E143">
         <v>87373.94805349005</v>
@@ -2805,10 +2805,10 @@
         <v>25668.64697304494</v>
       </c>
       <c r="C144">
-        <v>43846.66120159114</v>
+        <v>43846.66120159116</v>
       </c>
       <c r="D144">
-        <v>67601.8040912689</v>
+        <v>67601.80409126889</v>
       </c>
       <c r="E144">
         <v>87373.94805349005</v>
@@ -2822,10 +2822,10 @@
         <v>25668.64697304494</v>
       </c>
       <c r="C145">
-        <v>43846.66120159114</v>
+        <v>43846.66120159116</v>
       </c>
       <c r="D145">
-        <v>67601.8040912689</v>
+        <v>67601.80409126889</v>
       </c>
       <c r="E145">
         <v>87373.94805349005</v>
@@ -2836,13 +2836,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>27521.07206178434</v>
+        <v>27521.07206178433</v>
       </c>
       <c r="C146">
-        <v>46460.89038708047</v>
+        <v>46460.89038708053</v>
       </c>
       <c r="D146">
-        <v>70293.19928261409</v>
+        <v>70293.19928261406</v>
       </c>
       <c r="E146">
         <v>89600.59150057063</v>
@@ -2853,16 +2853,16 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>23827.33380657039</v>
+        <v>23827.33380657038</v>
       </c>
       <c r="C147">
         <v>40995.69026237477</v>
       </c>
       <c r="D147">
-        <v>64868.79523061847</v>
+        <v>64868.7952306185</v>
       </c>
       <c r="E147">
-        <v>85919.16360313301</v>
+        <v>85919.163603133</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2873,10 +2873,10 @@
         <v>23046.74644479176</v>
       </c>
       <c r="C148">
-        <v>39838.88370908257</v>
+        <v>39838.88370908255</v>
       </c>
       <c r="D148">
-        <v>63535.4700761849</v>
+        <v>63535.47007618489</v>
       </c>
       <c r="E148">
         <v>84704.53162391472</v>
@@ -2890,13 +2890,13 @@
         <v>20445.01728828</v>
       </c>
       <c r="C149">
-        <v>36473.76955457895</v>
+        <v>36473.76955457894</v>
       </c>
       <c r="D149">
-        <v>60217.33295842273</v>
+        <v>60217.33295842272</v>
       </c>
       <c r="E149">
-        <v>81741.93923920802</v>
+        <v>81741.93923920798</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2907,13 +2907,13 @@
         <v>20445.01728828</v>
       </c>
       <c r="C150">
-        <v>36473.76955457895</v>
+        <v>36473.76955457894</v>
       </c>
       <c r="D150">
-        <v>60217.33295842273</v>
+        <v>60217.33295842272</v>
       </c>
       <c r="E150">
-        <v>81741.93923920802</v>
+        <v>81741.93923920798</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2924,13 +2924,13 @@
         <v>20445.01728828</v>
       </c>
       <c r="C151">
-        <v>36473.76955457895</v>
+        <v>36473.76955457894</v>
       </c>
       <c r="D151">
-        <v>60217.33295842273</v>
+        <v>60217.33295842272</v>
       </c>
       <c r="E151">
-        <v>81741.93923920802</v>
+        <v>81741.93923920798</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2941,13 +2941,13 @@
         <v>20445.01728828</v>
       </c>
       <c r="C152">
-        <v>36473.76955457895</v>
+        <v>36473.76955457894</v>
       </c>
       <c r="D152">
-        <v>60217.33295842273</v>
+        <v>60217.33295842272</v>
       </c>
       <c r="E152">
-        <v>81741.93923920802</v>
+        <v>81741.93923920798</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2958,13 +2958,13 @@
         <v>22581.76164001418</v>
       </c>
       <c r="C153">
-        <v>39265.11330875124</v>
+        <v>39265.11330875126</v>
       </c>
       <c r="D153">
-        <v>63537.18312123937</v>
+        <v>63537.18312123932</v>
       </c>
       <c r="E153">
-        <v>84951.41999398176</v>
+        <v>84951.41999398173</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2975,13 +2975,13 @@
         <v>22581.76164001418</v>
       </c>
       <c r="C154">
-        <v>39265.11330875124</v>
+        <v>39265.11330875126</v>
       </c>
       <c r="D154">
-        <v>63537.18312123937</v>
+        <v>63537.18312123932</v>
       </c>
       <c r="E154">
-        <v>84951.41999398176</v>
+        <v>84951.41999398173</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -2992,13 +2992,13 @@
         <v>19893.87763518015</v>
       </c>
       <c r="C155">
-        <v>34756.37201272295</v>
+        <v>34756.37201272293</v>
       </c>
       <c r="D155">
-        <v>57817.91608177694</v>
+        <v>57817.91608177689</v>
       </c>
       <c r="E155">
-        <v>79606.84203315419</v>
+        <v>79606.84203315416</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3009,13 +3009,13 @@
         <v>19893.87763518015</v>
       </c>
       <c r="C156">
-        <v>34756.37201272295</v>
+        <v>34756.37201272293</v>
       </c>
       <c r="D156">
-        <v>57817.91608177694</v>
+        <v>57817.91608177689</v>
       </c>
       <c r="E156">
-        <v>79606.84203315419</v>
+        <v>79606.84203315416</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3023,16 +3023,16 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>20638.31076816752</v>
+        <v>20638.31076816751</v>
       </c>
       <c r="C157">
-        <v>35860.4452109194</v>
+        <v>35860.44521091939</v>
       </c>
       <c r="D157">
-        <v>59160.92361364205</v>
+        <v>59160.92361364203</v>
       </c>
       <c r="E157">
-        <v>80941.14312063821</v>
+        <v>80941.14312063823</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3040,16 +3040,16 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>20474.20655778235</v>
+        <v>20474.20655778236</v>
       </c>
       <c r="C158">
         <v>36496.3359657972</v>
       </c>
       <c r="D158">
-        <v>60505.90431952079</v>
+        <v>60505.90431952076</v>
       </c>
       <c r="E158">
-        <v>82275.94102451885</v>
+        <v>82275.94102451888</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3057,16 +3057,16 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>19709.0375471633</v>
+        <v>19709.03754716329</v>
       </c>
       <c r="C159">
-        <v>35312.14514197724</v>
+        <v>35312.14514197726</v>
       </c>
       <c r="D159">
-        <v>59083.6077425469</v>
+        <v>59083.60774254693</v>
       </c>
       <c r="E159">
-        <v>80894.99409014404</v>
+        <v>80894.994090144</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3077,13 +3077,13 @@
         <v>18630.69530802265</v>
       </c>
       <c r="C160">
-        <v>33580.57799623942</v>
+        <v>33580.5779962394</v>
       </c>
       <c r="D160">
-        <v>56839.44686715908</v>
+        <v>56839.44686715903</v>
       </c>
       <c r="E160">
-        <v>78936.91266404382</v>
+        <v>78936.9126640438</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3091,16 +3091,16 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>20201.9860696243</v>
+        <v>20201.98606962429</v>
       </c>
       <c r="C161">
         <v>36801.16355453341</v>
       </c>
       <c r="D161">
-        <v>61601.99336193221</v>
+        <v>61601.9933619322</v>
       </c>
       <c r="E161">
-        <v>83660.29847577109</v>
+        <v>83660.29847577105</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3114,7 +3114,7 @@
         <v>35782.15101039672</v>
       </c>
       <c r="D162">
-        <v>59507.55019615483</v>
+        <v>59507.55019615481</v>
       </c>
       <c r="E162">
         <v>81607.71659421393</v>
@@ -3128,13 +3128,13 @@
         <v>21222.34701295335</v>
       </c>
       <c r="C163">
-        <v>37825.19130535944</v>
+        <v>37825.19130535945</v>
       </c>
       <c r="D163">
-        <v>61799.57603762491</v>
+        <v>61799.57603762493</v>
       </c>
       <c r="E163">
-        <v>83148.55089646702</v>
+        <v>83148.550896467</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3142,16 +3142,16 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>22038.66552783229</v>
+        <v>22038.66552783228</v>
       </c>
       <c r="C164">
-        <v>39048.73934334142</v>
+        <v>39048.73934334139</v>
       </c>
       <c r="D164">
-        <v>63193.70814172496</v>
+        <v>63193.70814172494</v>
       </c>
       <c r="E164">
-        <v>84441.33596019117</v>
+        <v>84441.33596019111</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3165,10 +3165,10 @@
         <v>36285.90125724208</v>
       </c>
       <c r="D165">
-        <v>60254.2046954275</v>
+        <v>60254.20469542751</v>
       </c>
       <c r="E165">
-        <v>81701.20665395586</v>
+        <v>81701.20665395584</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3182,10 +3182,10 @@
         <v>36285.90125724208</v>
       </c>
       <c r="D166">
-        <v>60254.2046954275</v>
+        <v>60254.20469542751</v>
       </c>
       <c r="E166">
-        <v>81701.20665395586</v>
+        <v>81701.20665395584</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3196,13 +3196,13 @@
         <v>21356.6238853264</v>
       </c>
       <c r="C167">
-        <v>38722.09467215936</v>
+        <v>38722.09467215937</v>
       </c>
       <c r="D167">
-        <v>63771.70067688973</v>
+        <v>63771.70067688972</v>
       </c>
       <c r="E167">
-        <v>85476.74895749667</v>
+        <v>85476.74895749666</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3213,10 +3213,10 @@
         <v>22152.49490738226</v>
       </c>
       <c r="C168">
-        <v>39932.4895015051</v>
+        <v>39932.48950150506</v>
       </c>
       <c r="D168">
-        <v>65138.36425746361</v>
+        <v>65138.36425746365</v>
       </c>
       <c r="E168">
         <v>86680.3649472573</v>
@@ -3230,13 +3230,13 @@
         <v>25672.26510527501</v>
       </c>
       <c r="C169">
-        <v>43973.65890664103</v>
+        <v>43973.65890664105</v>
       </c>
       <c r="D169">
-        <v>67712.67870663847</v>
+        <v>67712.67870663849</v>
       </c>
       <c r="E169">
-        <v>87584.67893135479</v>
+        <v>87584.67893135482</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3244,16 +3244,16 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>23862.15238367508</v>
+        <v>23862.15238367509</v>
       </c>
       <c r="C170">
         <v>41559.44033557109</v>
       </c>
       <c r="D170">
-        <v>65591.68273247607</v>
+        <v>65591.68273247613</v>
       </c>
       <c r="E170">
-        <v>86318.08440166614</v>
+        <v>86318.08440166607</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3264,13 +3264,13 @@
         <v>25672.26510527501</v>
       </c>
       <c r="C171">
-        <v>43973.65890664103</v>
+        <v>43973.65890664105</v>
       </c>
       <c r="D171">
-        <v>67712.67870663847</v>
+        <v>67712.67870663849</v>
       </c>
       <c r="E171">
-        <v>87584.67893135479</v>
+        <v>87584.67893135482</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3278,16 +3278,16 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>23862.15238367508</v>
+        <v>23862.15238367509</v>
       </c>
       <c r="C172">
         <v>41559.44033557109</v>
       </c>
       <c r="D172">
-        <v>65591.68273247607</v>
+        <v>65591.68273247613</v>
       </c>
       <c r="E172">
-        <v>86318.08440166614</v>
+        <v>86318.08440166607</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3295,16 +3295,16 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>23862.15238367508</v>
+        <v>23862.15238367509</v>
       </c>
       <c r="C173">
         <v>41559.44033557109</v>
       </c>
       <c r="D173">
-        <v>65591.68273247607</v>
+        <v>65591.68273247613</v>
       </c>
       <c r="E173">
-        <v>86318.08440166614</v>
+        <v>86318.08440166607</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3312,16 +3312,16 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>24496.43162265492</v>
+        <v>24496.43162265489</v>
       </c>
       <c r="C174">
-        <v>41902.65025490562</v>
+        <v>41902.65025490563</v>
       </c>
       <c r="D174">
         <v>65437.65051796643</v>
       </c>
       <c r="E174">
-        <v>85648.18982485638</v>
+        <v>85648.18982485635</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3332,13 +3332,13 @@
         <v>26447.59780464165</v>
       </c>
       <c r="C175">
-        <v>44974.01606182592</v>
+        <v>44974.0160618259</v>
       </c>
       <c r="D175">
-        <v>69389.22323570274</v>
+        <v>69389.22323570278</v>
       </c>
       <c r="E175">
-        <v>89546.43724211781</v>
+        <v>89546.43724211783</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3349,13 +3349,13 @@
         <v>25588.44208412581</v>
       </c>
       <c r="C176">
-        <v>43758.5125769381</v>
+        <v>43758.51257693813</v>
       </c>
       <c r="D176">
         <v>68101.03109708683</v>
       </c>
       <c r="E176">
-        <v>88502.53268844369</v>
+        <v>88502.53268844375</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3366,13 +3366,13 @@
         <v>25588.44208412581</v>
       </c>
       <c r="C177">
-        <v>43758.5125769381</v>
+        <v>43758.51257693813</v>
       </c>
       <c r="D177">
         <v>68101.03109708683</v>
       </c>
       <c r="E177">
-        <v>88502.53268844369</v>
+        <v>88502.53268844375</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3380,16 +3380,16 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>24819.90447721539</v>
+        <v>24819.9044772154</v>
       </c>
       <c r="C178">
-        <v>42433.28673398381</v>
+        <v>42433.2867339838</v>
       </c>
       <c r="D178">
-        <v>66372.70470101442</v>
+        <v>66372.70470101443</v>
       </c>
       <c r="E178">
-        <v>86955.62554487775</v>
+        <v>86955.62554487771</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3397,16 +3397,16 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>25329.97962880251</v>
+        <v>25329.97962880252</v>
       </c>
       <c r="C179">
         <v>42864.32027219619</v>
       </c>
       <c r="D179">
-        <v>66619.23775983769</v>
+        <v>66619.23775983772</v>
       </c>
       <c r="E179">
-        <v>87133.83797111054</v>
+        <v>87133.83797111049</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3423,7 +3423,7 @@
         <v>69199.48076533577</v>
       </c>
       <c r="E180">
-        <v>89300.9303394632</v>
+        <v>89300.93033946319</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3440,7 +3440,7 @@
         <v>69199.48076533577</v>
       </c>
       <c r="E181">
-        <v>89300.9303394632</v>
+        <v>89300.93033946319</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3451,13 +3451,13 @@
         <v>22040.92372771226</v>
       </c>
       <c r="C182">
-        <v>38739.40555136376</v>
+        <v>38739.4055513638</v>
       </c>
       <c r="D182">
-        <v>63529.22470190338</v>
+        <v>63529.22470190337</v>
       </c>
       <c r="E182">
-        <v>85450.92346298012</v>
+        <v>85450.92346298016</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3465,16 +3465,16 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>19985.72569372258</v>
+        <v>19985.72569372257</v>
       </c>
       <c r="C183">
-        <v>36170.77403399821</v>
+        <v>36170.77403399822</v>
       </c>
       <c r="D183">
-        <v>61114.38611446879</v>
+        <v>61114.38611446878</v>
       </c>
       <c r="E183">
-        <v>83597.37487798117</v>
+        <v>83597.37487798119</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3482,16 +3482,16 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>22892.1656003732</v>
+        <v>22892.16560037322</v>
       </c>
       <c r="C184">
-        <v>40874.19297156562</v>
+        <v>40874.19297156564</v>
       </c>
       <c r="D184">
         <v>65984.59683195724</v>
       </c>
       <c r="E184">
-        <v>87197.45982875432</v>
+        <v>87197.45982875429</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3499,16 +3499,16 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>22892.1656003732</v>
+        <v>22892.16560037322</v>
       </c>
       <c r="C185">
-        <v>40874.19297156562</v>
+        <v>40874.19297156564</v>
       </c>
       <c r="D185">
         <v>65984.59683195724</v>
       </c>
       <c r="E185">
-        <v>87197.45982875432</v>
+        <v>87197.45982875429</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3519,10 +3519,10 @@
         <v>20012.59308541121</v>
       </c>
       <c r="C186">
-        <v>37270.93943194174</v>
+        <v>37270.93943194173</v>
       </c>
       <c r="D186">
-        <v>63079.981690337</v>
+        <v>63079.98169033702</v>
       </c>
       <c r="E186">
         <v>85226.0507397459</v>
@@ -3533,10 +3533,10 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>19190.49167491949</v>
+        <v>19190.49167491948</v>
       </c>
       <c r="C187">
-        <v>35984.02834179998</v>
+        <v>35984.02834179997</v>
       </c>
       <c r="D187">
         <v>61624.29052378986</v>
@@ -3553,13 +3553,13 @@
         <v>21758.41870508668</v>
       </c>
       <c r="C188">
-        <v>38840.63003020895</v>
+        <v>38840.63003020897</v>
       </c>
       <c r="D188">
-        <v>63902.65910537163</v>
+        <v>63902.65910537164</v>
       </c>
       <c r="E188">
-        <v>85795.66965861234</v>
+        <v>85795.6696586124</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3570,13 +3570,13 @@
         <v>21758.41870508668</v>
       </c>
       <c r="C189">
-        <v>38840.63003020895</v>
+        <v>38840.63003020897</v>
       </c>
       <c r="D189">
-        <v>63902.65910537163</v>
+        <v>63902.65910537164</v>
       </c>
       <c r="E189">
-        <v>85795.66965861234</v>
+        <v>85795.6696586124</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3587,13 +3587,13 @@
         <v>21758.41870508668</v>
       </c>
       <c r="C190">
-        <v>38840.63003020895</v>
+        <v>38840.63003020897</v>
       </c>
       <c r="D190">
-        <v>63902.65910537163</v>
+        <v>63902.65910537164</v>
       </c>
       <c r="E190">
-        <v>85795.66965861234</v>
+        <v>85795.6696586124</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3604,13 +3604,13 @@
         <v>23414.1744095217</v>
       </c>
       <c r="C191">
-        <v>41441.75570940799</v>
+        <v>41441.755709408</v>
       </c>
       <c r="D191">
         <v>66521.43907548705</v>
       </c>
       <c r="E191">
-        <v>87530.73358419081</v>
+        <v>87530.73358419079</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3618,10 +3618,10 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>19190.49167491949</v>
+        <v>19190.49167491948</v>
       </c>
       <c r="C192">
-        <v>35984.02834179998</v>
+        <v>35984.02834179997</v>
       </c>
       <c r="D192">
         <v>61624.29052378986</v>
@@ -3635,13 +3635,13 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>25026.4126656544</v>
+        <v>25026.41266565439</v>
       </c>
       <c r="C193">
         <v>43293.20311383971</v>
       </c>
       <c r="D193">
-        <v>67641.74577161542</v>
+        <v>67641.7457716155</v>
       </c>
       <c r="E193">
         <v>87718.66904930404</v>
@@ -3652,13 +3652,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>25026.4126656544</v>
+        <v>25026.41266565439</v>
       </c>
       <c r="C194">
         <v>43293.20311383971</v>
       </c>
       <c r="D194">
-        <v>67641.74577161542</v>
+        <v>67641.7457716155</v>
       </c>
       <c r="E194">
         <v>87718.66904930404</v>
@@ -3672,13 +3672,13 @@
         <v>25672.26510527501</v>
       </c>
       <c r="C195">
-        <v>43973.65890664103</v>
+        <v>43973.65890664105</v>
       </c>
       <c r="D195">
-        <v>67712.67870663847</v>
+        <v>67712.67870663849</v>
       </c>
       <c r="E195">
-        <v>87584.67893135479</v>
+        <v>87584.67893135482</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3689,13 +3689,13 @@
         <v>22547.64242136983</v>
       </c>
       <c r="C196">
-        <v>40251.62319751853</v>
+        <v>40251.62319751856</v>
       </c>
       <c r="D196">
-        <v>65194.9948662414</v>
+        <v>65194.99486624142</v>
       </c>
       <c r="E196">
-        <v>86382.98293807426</v>
+        <v>86382.98293807422</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3706,13 +3706,13 @@
         <v>23197.93714239415</v>
       </c>
       <c r="C197">
-        <v>40964.91395063019</v>
+        <v>40964.91395063021</v>
       </c>
       <c r="D197">
-        <v>65877.10608235045</v>
+        <v>65877.10608235044</v>
       </c>
       <c r="E197">
-        <v>86782.47517773848</v>
+        <v>86782.47517773851</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3723,13 +3723,13 @@
         <v>23197.93714239415</v>
       </c>
       <c r="C198">
-        <v>40964.91395063019</v>
+        <v>40964.91395063021</v>
       </c>
       <c r="D198">
-        <v>65877.10608235045</v>
+        <v>65877.10608235044</v>
       </c>
       <c r="E198">
-        <v>86782.47517773848</v>
+        <v>86782.47517773851</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3740,10 +3740,10 @@
         <v>24098.5560769864</v>
       </c>
       <c r="C199">
-        <v>42297.69535578853</v>
+        <v>42297.69535578851</v>
       </c>
       <c r="D199">
-        <v>67310.62496348906</v>
+        <v>67310.62496348904</v>
       </c>
       <c r="E199">
         <v>87965.41975165396</v>
@@ -3757,10 +3757,10 @@
         <v>24098.5560769864</v>
       </c>
       <c r="C200">
-        <v>42297.69535578853</v>
+        <v>42297.69535578851</v>
       </c>
       <c r="D200">
-        <v>67310.62496348906</v>
+        <v>67310.62496348904</v>
       </c>
       <c r="E200">
         <v>87965.41975165396</v>
@@ -3771,16 +3771,16 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>24557.40588834501</v>
+        <v>24557.40588834504</v>
       </c>
       <c r="C201">
         <v>43846.92458753588</v>
       </c>
       <c r="D201">
-        <v>69693.51561826287</v>
+        <v>69693.5156182629</v>
       </c>
       <c r="E201">
-        <v>89622.85048798968</v>
+        <v>89622.85048798969</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3788,13 +3788,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>25308.87883859844</v>
+        <v>25308.87883859843</v>
       </c>
       <c r="C202">
-        <v>44262.67463637891</v>
+        <v>44262.6746363789</v>
       </c>
       <c r="D202">
-        <v>70145.18569161532</v>
+        <v>70145.18569161536</v>
       </c>
       <c r="E202">
         <v>90343.14691294488</v>
@@ -3805,13 +3805,13 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>23419.5487740002</v>
+        <v>23419.54877400021</v>
       </c>
       <c r="C203">
-        <v>41534.68274038144</v>
+        <v>41534.68274038143</v>
       </c>
       <c r="D203">
-        <v>66571.35568265729</v>
+        <v>66571.3556826573</v>
       </c>
       <c r="E203">
         <v>87539.25778782777</v>
@@ -3822,16 +3822,16 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>22530.78308673442</v>
+        <v>22530.78308673441</v>
       </c>
       <c r="C204">
-        <v>40421.13380132397</v>
+        <v>40421.13380132399</v>
       </c>
       <c r="D204">
-        <v>65904.9952310464</v>
+        <v>65904.99523104641</v>
       </c>
       <c r="E204">
-        <v>87138.85302919419</v>
+        <v>87138.85302919417</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,7 +3839,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>23420.24389746422</v>
+        <v>23420.24389746421</v>
       </c>
       <c r="C205">
         <v>41732.3247406747</v>
@@ -3848,7 +3848,7 @@
         <v>67302.48627559369</v>
       </c>
       <c r="E205">
-        <v>88287.60439868507</v>
+        <v>88287.60439868506</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3859,7 +3859,7 @@
         <v>18210.84410553016</v>
       </c>
       <c r="C206">
-        <v>33914.51051653549</v>
+        <v>33914.51051653548</v>
       </c>
       <c r="D206">
         <v>56456.69750798892</v>
@@ -3873,16 +3873,16 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>17091.05128769969</v>
+        <v>17091.05128769968</v>
       </c>
       <c r="C207">
-        <v>31461.0434928338</v>
+        <v>31461.04349283379</v>
       </c>
       <c r="D207">
-        <v>52775.05984768375</v>
+        <v>52775.05984768377</v>
       </c>
       <c r="E207">
-        <v>71791.64460973647</v>
+        <v>71791.64460973644</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3890,16 +3890,16 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>17091.05128769969</v>
+        <v>17091.05128769968</v>
       </c>
       <c r="C208">
-        <v>31461.0434928338</v>
+        <v>31461.04349283379</v>
       </c>
       <c r="D208">
-        <v>52775.05984768375</v>
+        <v>52775.05984768377</v>
       </c>
       <c r="E208">
-        <v>71791.64460973647</v>
+        <v>71791.64460973644</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3910,7 +3910,7 @@
         <v>18210.84410553016</v>
       </c>
       <c r="C209">
-        <v>33914.51051653549</v>
+        <v>33914.51051653548</v>
       </c>
       <c r="D209">
         <v>56456.69750798892</v>
@@ -3924,16 +3924,16 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>17091.05128769969</v>
+        <v>17091.05128769968</v>
       </c>
       <c r="C210">
-        <v>31461.0434928338</v>
+        <v>31461.04349283379</v>
       </c>
       <c r="D210">
-        <v>52775.05984768375</v>
+        <v>52775.05984768377</v>
       </c>
       <c r="E210">
-        <v>71791.64460973647</v>
+        <v>71791.64460973644</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3941,16 +3941,16 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>17791.22079775447</v>
+        <v>17791.22079775446</v>
       </c>
       <c r="C211">
-        <v>32363.56242347881</v>
+        <v>32363.56242347879</v>
       </c>
       <c r="D211">
         <v>54142.31354348508</v>
       </c>
       <c r="E211">
-        <v>73846.67053571105</v>
+        <v>73846.67053571108</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3958,16 +3958,16 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>18844.53510600184</v>
+        <v>18844.53510600183</v>
       </c>
       <c r="C212">
-        <v>35312.64294475072</v>
+        <v>35312.64294475073</v>
       </c>
       <c r="D212">
-        <v>58552.9327865974</v>
+        <v>58552.93278659739</v>
       </c>
       <c r="E212">
-        <v>78488.43079451633</v>
+        <v>78488.43079451635</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3975,16 +3975,16 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>17091.05128769969</v>
+        <v>17091.05128769968</v>
       </c>
       <c r="C213">
-        <v>31461.0434928338</v>
+        <v>31461.04349283379</v>
       </c>
       <c r="D213">
-        <v>52775.05984768375</v>
+        <v>52775.05984768377</v>
       </c>
       <c r="E213">
-        <v>71791.64460973647</v>
+        <v>71791.64460973644</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3992,16 +3992,16 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>15609.39528265912</v>
+        <v>15609.39528265911</v>
       </c>
       <c r="C214">
-        <v>28735.31538580771</v>
+        <v>28735.31538580769</v>
       </c>
       <c r="D214">
-        <v>49233.08370449843</v>
+        <v>49233.08370449844</v>
       </c>
       <c r="E214">
-        <v>67959.98694477725</v>
+        <v>67959.98694477722</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4009,16 +4009,16 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>15609.39528265912</v>
+        <v>15609.39528265911</v>
       </c>
       <c r="C215">
-        <v>28735.31538580771</v>
+        <v>28735.31538580769</v>
       </c>
       <c r="D215">
-        <v>49233.08370449843</v>
+        <v>49233.08370449844</v>
       </c>
       <c r="E215">
-        <v>67959.98694477725</v>
+        <v>67959.98694477722</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4026,16 +4026,16 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>15591.19914363038</v>
+        <v>15591.19914363037</v>
       </c>
       <c r="C216">
         <v>28303.89705235741</v>
       </c>
       <c r="D216">
-        <v>48190.96767786289</v>
+        <v>48190.96767786288</v>
       </c>
       <c r="E216">
-        <v>66570.7928651687</v>
+        <v>66570.79286516865</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4049,10 +4049,10 @@
         <v>29577.71797082834</v>
       </c>
       <c r="D217">
-        <v>50533.00669137841</v>
+        <v>50533.00669137846</v>
       </c>
       <c r="E217">
-        <v>69543.10483115488</v>
+        <v>69543.10483115494</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4066,7 +4066,7 @@
         <v>30533.45029762189</v>
       </c>
       <c r="D218">
-        <v>51935.01304015395</v>
+        <v>51935.01304015398</v>
       </c>
       <c r="E218">
         <v>71262.36887238732</v>
@@ -4077,13 +4077,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>17610.7158976718</v>
+        <v>17610.71589767179</v>
       </c>
       <c r="C219">
-        <v>33916.8751918164</v>
+        <v>33916.87519181641</v>
       </c>
       <c r="D219">
-        <v>57410.51956797155</v>
+        <v>57410.51956797153</v>
       </c>
       <c r="E219">
         <v>77447.31372482999</v>
@@ -4094,16 +4094,16 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>19266.92091810022</v>
+        <v>19266.92091810023</v>
       </c>
       <c r="C220">
-        <v>36651.2689392444</v>
+        <v>36651.26893924439</v>
       </c>
       <c r="D220">
-        <v>60351.77464209411</v>
+        <v>60351.77464209407</v>
       </c>
       <c r="E220">
-        <v>80239.2723409583</v>
+        <v>80239.27234095831</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4114,13 +4114,13 @@
         <v>18076.16040702663</v>
       </c>
       <c r="C221">
-        <v>35403.92771074318</v>
+        <v>35403.92771074319</v>
       </c>
       <c r="D221">
-        <v>59768.42062949466</v>
+        <v>59768.42062949467</v>
       </c>
       <c r="E221">
-        <v>80007.30447308549</v>
+        <v>80007.30447308547</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4128,13 +4128,13 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>17610.7158976718</v>
+        <v>17610.71589767179</v>
       </c>
       <c r="C222">
-        <v>33916.8751918164</v>
+        <v>33916.87519181641</v>
       </c>
       <c r="D222">
-        <v>57410.51956797155</v>
+        <v>57410.51956797153</v>
       </c>
       <c r="E222">
         <v>77447.31372482999</v>
@@ -4145,16 +4145,16 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>18885.06878420647</v>
+        <v>18885.06878420648</v>
       </c>
       <c r="C223">
         <v>36786.18808157284</v>
       </c>
       <c r="D223">
-        <v>61347.72494194676</v>
+        <v>61347.72494194673</v>
       </c>
       <c r="E223">
-        <v>81552.6674370597</v>
+        <v>81552.66743705966</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4165,13 +4165,13 @@
         <v>15813.39553090672</v>
       </c>
       <c r="C224">
-        <v>28796.58155931543</v>
+        <v>28796.58155931542</v>
       </c>
       <c r="D224">
         <v>49154.71895401309</v>
       </c>
       <c r="E224">
-        <v>68175.21833064384</v>
+        <v>68175.21833064388</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4182,13 +4182,13 @@
         <v>14710.44501476294</v>
       </c>
       <c r="C225">
-        <v>27060.73673193773</v>
+        <v>27060.73673193772</v>
       </c>
       <c r="D225">
-        <v>46584.75698635171</v>
+        <v>46584.75698635173</v>
       </c>
       <c r="E225">
-        <v>64711.68820695927</v>
+        <v>64711.68820695928</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4202,10 +4202,10 @@
         <v>27927.63647884534</v>
       </c>
       <c r="D226">
-        <v>47868.93859432716</v>
+        <v>47868.93859432715</v>
       </c>
       <c r="E226">
-        <v>66455.35475496053</v>
+        <v>66455.35475496051</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4216,13 +4216,13 @@
         <v>15305.22823749024</v>
       </c>
       <c r="C227">
-        <v>27386.4711656162</v>
+        <v>27386.47116561618</v>
       </c>
       <c r="D227">
-        <v>46512.94029151344</v>
+        <v>46512.94029151347</v>
       </c>
       <c r="E227">
-        <v>64474.1047820341</v>
+        <v>64474.10478203412</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4233,13 +4233,13 @@
         <v>14860.53922569868</v>
       </c>
       <c r="C228">
-        <v>27905.11492479476</v>
+        <v>27905.11492479475</v>
       </c>
       <c r="D228">
-        <v>49036.16302068029</v>
+        <v>49036.16302068028</v>
       </c>
       <c r="E228">
-        <v>69067.01099520404</v>
+        <v>69067.01099520402</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4247,16 +4247,16 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>19266.92091810022</v>
+        <v>19266.92091810023</v>
       </c>
       <c r="C229">
-        <v>36651.2689392444</v>
+        <v>36651.26893924439</v>
       </c>
       <c r="D229">
-        <v>60351.77464209411</v>
+        <v>60351.77464209407</v>
       </c>
       <c r="E229">
-        <v>80239.2723409583</v>
+        <v>80239.27234095831</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4267,10 +4267,10 @@
         <v>17286.15485076602</v>
       </c>
       <c r="C230">
-        <v>34030.0119501149</v>
+        <v>34030.01195011492</v>
       </c>
       <c r="D230">
-        <v>58157.78513654705</v>
+        <v>58157.78513654702</v>
       </c>
       <c r="E230">
         <v>78392.696844408</v>
@@ -4281,16 +4281,16 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>19539.20755371418</v>
+        <v>19539.20755371419</v>
       </c>
       <c r="C231">
         <v>36524.86961875048</v>
       </c>
       <c r="D231">
-        <v>60034.49817393547</v>
+        <v>60034.49817393546</v>
       </c>
       <c r="E231">
-        <v>80031.91868061638</v>
+        <v>80031.91868061635</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4298,16 +4298,16 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>17391.23107331419</v>
+        <v>17391.23107331418</v>
       </c>
       <c r="C232">
-        <v>32505.19678623695</v>
+        <v>32505.19678623696</v>
       </c>
       <c r="D232">
-        <v>55343.79030192215</v>
+        <v>55343.79030192216</v>
       </c>
       <c r="E232">
-        <v>75469.04613378702</v>
+        <v>75469.04613378707</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4318,13 +4318,13 @@
         <v>18018.26631315115</v>
       </c>
       <c r="C233">
-        <v>33648.48571152954</v>
+        <v>33648.48571152953</v>
       </c>
       <c r="D233">
         <v>56841.26632814096</v>
       </c>
       <c r="E233">
-        <v>77106.93980621772</v>
+        <v>77106.9398062176</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4338,10 +4338,10 @@
         <v>35757.52486687821</v>
       </c>
       <c r="D234">
-        <v>59597.08775831147</v>
+        <v>59597.08775831145</v>
       </c>
       <c r="E234">
-        <v>79740.50625887219</v>
+        <v>79740.50625887225</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4355,10 +4355,10 @@
         <v>35757.52486687821</v>
       </c>
       <c r="D235">
-        <v>59597.08775831147</v>
+        <v>59597.08775831145</v>
       </c>
       <c r="E235">
-        <v>79740.50625887219</v>
+        <v>79740.50625887225</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4372,10 +4372,10 @@
         <v>35757.52486687821</v>
       </c>
       <c r="D236">
-        <v>59597.08775831147</v>
+        <v>59597.08775831145</v>
       </c>
       <c r="E236">
-        <v>79740.50625887219</v>
+        <v>79740.50625887225</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4386,13 +4386,13 @@
         <v>15813.60669327788</v>
       </c>
       <c r="C237">
-        <v>28201.40150385433</v>
+        <v>28201.40150385431</v>
       </c>
       <c r="D237">
-        <v>47780.60580057158</v>
+        <v>47780.6058005716</v>
       </c>
       <c r="E237">
-        <v>66206.01253546865</v>
+        <v>66206.01253546863</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4403,13 +4403,13 @@
         <v>15305.22823749024</v>
       </c>
       <c r="C238">
-        <v>27386.4711656162</v>
+        <v>27386.47116561618</v>
       </c>
       <c r="D238">
-        <v>46512.94029151344</v>
+        <v>46512.94029151347</v>
       </c>
       <c r="E238">
-        <v>64474.1047820341</v>
+        <v>64474.10478203412</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4420,10 +4420,10 @@
         <v>16320.09367288852</v>
       </c>
       <c r="C239">
-        <v>29023.48540980197</v>
+        <v>29023.48540980196</v>
       </c>
       <c r="D239">
-        <v>49052.15718822651</v>
+        <v>49052.15718822653</v>
       </c>
       <c r="E239">
         <v>67913.4727778376</v>
@@ -4437,13 +4437,13 @@
         <v>15937.20596114037</v>
       </c>
       <c r="C240">
-        <v>28498.21988381356</v>
+        <v>28498.21988381355</v>
       </c>
       <c r="D240">
         <v>48154.02437579397</v>
       </c>
       <c r="E240">
-        <v>66524.28310976102</v>
+        <v>66524.28310976103</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4454,10 +4454,10 @@
         <v>15632.48758058857</v>
       </c>
       <c r="C241">
-        <v>28037.87890026507</v>
+        <v>28037.87890026505</v>
       </c>
       <c r="D241">
-        <v>47579.76846317252</v>
+        <v>47579.76846317256</v>
       </c>
       <c r="E241">
         <v>65911.13591844581</v>
@@ -4471,13 +4471,13 @@
         <v>18076.16040702663</v>
       </c>
       <c r="C242">
-        <v>35403.92771074318</v>
+        <v>35403.92771074319</v>
       </c>
       <c r="D242">
-        <v>59768.42062949466</v>
+        <v>59768.42062949467</v>
       </c>
       <c r="E242">
-        <v>80007.30447308549</v>
+        <v>80007.30447308547</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4488,13 +4488,13 @@
         <v>18290.71092626265</v>
       </c>
       <c r="C243">
-        <v>36380.05392234654</v>
+        <v>36380.05392234655</v>
       </c>
       <c r="D243">
-        <v>61399.02493818876</v>
+        <v>61399.02493818878</v>
       </c>
       <c r="E243">
-        <v>81632.74981536274</v>
+        <v>81632.7498153628</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4505,13 +4505,13 @@
         <v>18076.16040702663</v>
       </c>
       <c r="C244">
-        <v>35403.92771074318</v>
+        <v>35403.92771074319</v>
       </c>
       <c r="D244">
-        <v>59768.42062949466</v>
+        <v>59768.42062949467</v>
       </c>
       <c r="E244">
-        <v>80007.30447308549</v>
+        <v>80007.30447308547</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4519,16 +4519,16 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>19172.96589716966</v>
+        <v>19172.96589716967</v>
       </c>
       <c r="C245">
-        <v>37870.74798570215</v>
+        <v>37870.74798570216</v>
       </c>
       <c r="D245">
-        <v>63027.88829992713</v>
+        <v>63027.8882999271</v>
       </c>
       <c r="E245">
-        <v>83127.17669884306</v>
+        <v>83127.17669884308</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4536,16 +4536,16 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>20511.92935978306</v>
+        <v>20511.92935978307</v>
       </c>
       <c r="C246">
-        <v>39866.13145413815</v>
+        <v>39866.13145413817</v>
       </c>
       <c r="D246">
-        <v>65073.87277544785</v>
+        <v>65073.87277544787</v>
       </c>
       <c r="E246">
-        <v>85011.89144639144</v>
+        <v>85011.89144639137</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,16 +4553,16 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>20511.92935978306</v>
+        <v>20511.92935978307</v>
       </c>
       <c r="C247">
-        <v>39866.13145413815</v>
+        <v>39866.13145413817</v>
       </c>
       <c r="D247">
-        <v>65073.87277544785</v>
+        <v>65073.87277544787</v>
       </c>
       <c r="E247">
-        <v>85011.89144639144</v>
+        <v>85011.89144639137</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4573,13 +4573,13 @@
         <v>18980.33179048115</v>
       </c>
       <c r="C248">
-        <v>34427.51855770416</v>
+        <v>34427.51855770415</v>
       </c>
       <c r="D248">
-        <v>56925.57855294523</v>
+        <v>56925.5785529452</v>
       </c>
       <c r="E248">
-        <v>77081.01801302235</v>
+        <v>77081.01801302229</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4590,13 +4590,13 @@
         <v>14860.53922569868</v>
       </c>
       <c r="C249">
-        <v>27905.11492479476</v>
+        <v>27905.11492479475</v>
       </c>
       <c r="D249">
-        <v>49036.16302068029</v>
+        <v>49036.16302068028</v>
       </c>
       <c r="E249">
-        <v>69067.01099520404</v>
+        <v>69067.01099520402</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4604,13 +4604,13 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>23370.20679642429</v>
+        <v>23370.2067964243</v>
       </c>
       <c r="C250">
-        <v>42944.91237740107</v>
+        <v>42944.91237740109</v>
       </c>
       <c r="D250">
-        <v>67778.521343236</v>
+        <v>67778.52134323602</v>
       </c>
       <c r="E250">
         <v>87077.63267236848</v>
@@ -4621,13 +4621,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>24890.94111300397</v>
+        <v>24890.94111300398</v>
       </c>
       <c r="C251">
-        <v>45335.84721114562</v>
+        <v>45335.84721114564</v>
       </c>
       <c r="D251">
-        <v>69925.77719056874</v>
+        <v>69925.7771905688</v>
       </c>
       <c r="E251">
         <v>88566.08989066975</v>
@@ -4638,13 +4638,13 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>19771.80705161239</v>
+        <v>19771.80705161238</v>
       </c>
       <c r="C252">
-        <v>38147.94498238069</v>
+        <v>38147.94498238068</v>
       </c>
       <c r="D252">
-        <v>63511.26875822761</v>
+        <v>63511.26875822758</v>
       </c>
       <c r="E252">
         <v>83825.31894303772</v>
@@ -4655,13 +4655,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>21266.37970421726</v>
+        <v>21266.37970421727</v>
       </c>
       <c r="C253">
-        <v>40817.41902396225</v>
+        <v>40817.41902396223</v>
       </c>
       <c r="D253">
-        <v>66748.39055153869</v>
+        <v>66748.39055153872</v>
       </c>
       <c r="E253">
         <v>86798.00330739588</v>
@@ -4675,13 +4675,13 @@
         <v>24620.61550641236</v>
       </c>
       <c r="C254">
-        <v>44847.29582896327</v>
+        <v>44847.29582896328</v>
       </c>
       <c r="D254">
-        <v>70176.52667332152</v>
+        <v>70176.52667332154</v>
       </c>
       <c r="E254">
-        <v>89408.98479339042</v>
+        <v>89408.98479339045</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4689,13 +4689,13 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>21266.37970421726</v>
+        <v>21266.37970421727</v>
       </c>
       <c r="C255">
-        <v>40817.41902396225</v>
+        <v>40817.41902396223</v>
       </c>
       <c r="D255">
-        <v>66748.39055153869</v>
+        <v>66748.39055153872</v>
       </c>
       <c r="E255">
         <v>86798.00330739588</v>
@@ -4706,16 +4706,16 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>18935.10267854975</v>
+        <v>18935.10267854976</v>
       </c>
       <c r="C256">
-        <v>36939.72072246432</v>
+        <v>36939.72072246434</v>
       </c>
       <c r="D256">
-        <v>62265.66783297254</v>
+        <v>62265.66783297253</v>
       </c>
       <c r="E256">
-        <v>82824.91430815349</v>
+        <v>82824.91430815346</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4723,16 +4723,16 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>15241.95081812241</v>
+        <v>15241.9508181224</v>
       </c>
       <c r="C257">
-        <v>31070.55177565913</v>
+        <v>31070.55177565912</v>
       </c>
       <c r="D257">
-        <v>56351.10540381144</v>
+        <v>56351.10540381148</v>
       </c>
       <c r="E257">
-        <v>77879.96869026446</v>
+        <v>77879.96869026442</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4740,7 +4740,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>14874.38536845177</v>
+        <v>14874.38536845178</v>
       </c>
       <c r="C258">
         <v>30129.31682560904</v>
@@ -4749,7 +4749,7 @@
         <v>55387.62613730659</v>
       </c>
       <c r="E258">
-        <v>77209.67452724875</v>
+        <v>77209.67452724878</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>14874.38536845177</v>
+        <v>14874.38536845178</v>
       </c>
       <c r="C259">
         <v>30129.31682560904</v>
@@ -4766,7 +4766,7 @@
         <v>55387.62613730659</v>
       </c>
       <c r="E259">
-        <v>77209.67452724875</v>
+        <v>77209.67452724878</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4774,16 +4774,16 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>8004.883101530026</v>
+        <v>8004.883101530032</v>
       </c>
       <c r="C260">
         <v>18433.5099869156</v>
       </c>
       <c r="D260">
-        <v>43850.85410713781</v>
+        <v>43850.85410713782</v>
       </c>
       <c r="E260">
-        <v>69881.26344390078</v>
+        <v>69881.26344390077</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4791,16 +4791,16 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>4177.636520427973</v>
+        <v>4177.636520427974</v>
       </c>
       <c r="C261">
         <v>10695.61443653775</v>
       </c>
       <c r="D261">
-        <v>33072.48621445795</v>
+        <v>33072.48621445796</v>
       </c>
       <c r="E261">
-        <v>58228.77875893</v>
+        <v>58228.77875892995</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4808,16 +4808,16 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>6867.771576024986</v>
+        <v>6867.771576024989</v>
       </c>
       <c r="C262">
         <v>16111.95823113644</v>
       </c>
       <c r="D262">
-        <v>40448.72380487154</v>
+        <v>40448.72380487156</v>
       </c>
       <c r="E262">
-        <v>66219.09846815988</v>
+        <v>66219.09846815991</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4825,16 +4825,16 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>7236.86554745294</v>
+        <v>7236.865547452934</v>
       </c>
       <c r="C263">
         <v>16957.65190607235</v>
       </c>
       <c r="D263">
-        <v>41855.27804656578</v>
+        <v>41855.27804656579</v>
       </c>
       <c r="E263">
-        <v>67940.55516437111</v>
+        <v>67940.55516437115</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4842,7 +4842,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>6028.654398624477</v>
+        <v>6028.654398624476</v>
       </c>
       <c r="C264">
         <v>14322.9688724226</v>
@@ -4851,7 +4851,7 @@
         <v>37944.88356107294</v>
       </c>
       <c r="E264">
-        <v>63551.78558972132</v>
+        <v>63551.78558972133</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4859,7 +4859,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>6028.654398624477</v>
+        <v>6028.654398624476</v>
       </c>
       <c r="C265">
         <v>14322.9688724226</v>
@@ -4868,7 +4868,7 @@
         <v>37944.88356107294</v>
       </c>
       <c r="E265">
-        <v>63551.78558972132</v>
+        <v>63551.78558972133</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4876,7 +4876,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>9936.280219727403</v>
+        <v>9936.280219727407</v>
       </c>
       <c r="C266">
         <v>22188.02272036586</v>
@@ -4885,7 +4885,7 @@
         <v>48559.12194575496</v>
       </c>
       <c r="E266">
-        <v>74729.4205121556</v>
+        <v>74729.42051215563</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4893,7 +4893,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>6028.654398624477</v>
+        <v>6028.654398624476</v>
       </c>
       <c r="C267">
         <v>14322.9688724226</v>
@@ -4902,7 +4902,7 @@
         <v>37944.88356107294</v>
       </c>
       <c r="E267">
-        <v>63551.78558972132</v>
+        <v>63551.78558972133</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4910,16 +4910,16 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>4177.636520427973</v>
+        <v>4177.636520427974</v>
       </c>
       <c r="C268">
         <v>10695.61443653775</v>
       </c>
       <c r="D268">
-        <v>33072.48621445795</v>
+        <v>33072.48621445796</v>
       </c>
       <c r="E268">
-        <v>58228.77875893</v>
+        <v>58228.77875892995</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4927,16 +4927,16 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>4177.636520427973</v>
+        <v>4177.636520427974</v>
       </c>
       <c r="C269">
         <v>10695.61443653775</v>
       </c>
       <c r="D269">
-        <v>33072.48621445795</v>
+        <v>33072.48621445796</v>
       </c>
       <c r="E269">
-        <v>58228.77875893</v>
+        <v>58228.77875892995</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4944,16 +4944,16 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>6369.426824541389</v>
+        <v>6369.426824541392</v>
       </c>
       <c r="C270">
-        <v>15119.98475519249</v>
+        <v>15119.98475519248</v>
       </c>
       <c r="D270">
-        <v>38714.98140285098</v>
+        <v>38714.98140285099</v>
       </c>
       <c r="E270">
-        <v>63508.47576465765</v>
+        <v>63508.47576465763</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,13 +4961,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>5022.14473702606</v>
+        <v>5022.144737026055</v>
       </c>
       <c r="C271">
-        <v>11541.77186779016</v>
+        <v>11541.77186779017</v>
       </c>
       <c r="D271">
-        <v>31673.85942437667</v>
+        <v>31673.8594243767</v>
       </c>
       <c r="E271">
         <v>54125.30801483153</v>
@@ -4978,13 +4978,13 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>5022.14473702606</v>
+        <v>5022.144737026055</v>
       </c>
       <c r="C272">
-        <v>11541.77186779016</v>
+        <v>11541.77186779017</v>
       </c>
       <c r="D272">
-        <v>31673.85942437667</v>
+        <v>31673.8594243767</v>
       </c>
       <c r="E272">
         <v>54125.30801483153</v>
@@ -4998,13 +4998,13 @@
         <v>6850.824134400514</v>
       </c>
       <c r="C273">
-        <v>16409.58442387149</v>
+        <v>16409.58442387148</v>
       </c>
       <c r="D273">
-        <v>41149.86523969809</v>
+        <v>41149.86523969811</v>
       </c>
       <c r="E273">
-        <v>66634.21464032147</v>
+        <v>66634.21464032141</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5015,13 +5015,13 @@
         <v>6850.824134400514</v>
       </c>
       <c r="C274">
-        <v>16409.58442387149</v>
+        <v>16409.58442387148</v>
       </c>
       <c r="D274">
-        <v>41149.86523969809</v>
+        <v>41149.86523969811</v>
       </c>
       <c r="E274">
-        <v>66634.21464032147</v>
+        <v>66634.21464032141</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5029,7 +5029,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>7282.863070248013</v>
+        <v>7282.863070248009</v>
       </c>
       <c r="C275">
         <v>15656.50466416691</v>
@@ -5038,7 +5038,7 @@
         <v>36097.03712921342</v>
       </c>
       <c r="E275">
-        <v>55671.24578612515</v>
+        <v>55671.24578612513</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5046,7 +5046,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>5318.230623776333</v>
+        <v>5318.230623776331</v>
       </c>
       <c r="C276">
         <v>12116.02257368279</v>
@@ -5055,7 +5055,7 @@
         <v>31232.40985441729</v>
       </c>
       <c r="E276">
-        <v>49422.5518677278</v>
+        <v>49422.55186772783</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5063,16 +5063,16 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>9980.134979641769</v>
+        <v>9980.134979641765</v>
       </c>
       <c r="C277">
-        <v>20607.43321148216</v>
+        <v>20607.43321148217</v>
       </c>
       <c r="D277">
         <v>43119.92207690296</v>
       </c>
       <c r="E277">
-        <v>64674.77251900268</v>
+        <v>64674.77251900266</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5083,13 +5083,13 @@
         <v>13758.41897974069</v>
       </c>
       <c r="C278">
-        <v>27384.65101458161</v>
+        <v>27384.65101458162</v>
       </c>
       <c r="D278">
         <v>51842.68601390249</v>
       </c>
       <c r="E278">
-        <v>74603.81746356262</v>
+        <v>74603.81746356258</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5097,16 +5097,16 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>14486.63463453157</v>
+        <v>14486.63463453156</v>
       </c>
       <c r="C279">
         <v>27828.22993350878</v>
       </c>
       <c r="D279">
-        <v>50232.47787999926</v>
+        <v>50232.47787999925</v>
       </c>
       <c r="E279">
-        <v>71017.28404373559</v>
+        <v>71017.28404373558</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5114,16 +5114,16 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>14486.63463453157</v>
+        <v>14486.63463453156</v>
       </c>
       <c r="C280">
         <v>27828.22993350878</v>
       </c>
       <c r="D280">
-        <v>50232.47787999926</v>
+        <v>50232.47787999925</v>
       </c>
       <c r="E280">
-        <v>71017.28404373559</v>
+        <v>71017.28404373558</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5157,7 +5157,7 @@
         <v>30934.72421845058</v>
       </c>
       <c r="E282">
-        <v>48965.44164546542</v>
+        <v>48965.44164546541</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5174,7 +5174,7 @@
         <v>30934.72421845058</v>
       </c>
       <c r="E283">
-        <v>48965.44164546542</v>
+        <v>48965.44164546541</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5191,7 +5191,7 @@
         <v>30934.72421845058</v>
       </c>
       <c r="E284">
-        <v>48965.44164546542</v>
+        <v>48965.44164546541</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5199,7 +5199,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>5318.230623776333</v>
+        <v>5318.230623776331</v>
       </c>
       <c r="C285">
         <v>12116.02257368279</v>
@@ -5208,7 +5208,7 @@
         <v>31232.40985441729</v>
       </c>
       <c r="E285">
-        <v>49422.5518677278</v>
+        <v>49422.55186772783</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,16 +5216,16 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>14486.63463453157</v>
+        <v>14486.63463453156</v>
       </c>
       <c r="C286">
         <v>27828.22993350878</v>
       </c>
       <c r="D286">
-        <v>50232.47787999926</v>
+        <v>50232.47787999925</v>
       </c>
       <c r="E286">
-        <v>71017.28404373559</v>
+        <v>71017.28404373558</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5233,16 +5233,16 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>17158.76094024264</v>
+        <v>17158.76094024263</v>
       </c>
       <c r="C287">
         <v>32842.06411254044</v>
       </c>
       <c r="D287">
-        <v>58535.69206635018</v>
+        <v>58535.69206635019</v>
       </c>
       <c r="E287">
-        <v>82053.48461709711</v>
+        <v>82053.48461709708</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5253,13 +5253,13 @@
         <v>14244.91943835216</v>
       </c>
       <c r="C288">
-        <v>29000.51568933646</v>
+        <v>29000.51568933645</v>
       </c>
       <c r="D288">
-        <v>54707.21259832092</v>
+        <v>54707.21259832095</v>
       </c>
       <c r="E288">
-        <v>78607.92816897499</v>
+        <v>78607.92816897498</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5267,16 +5267,16 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>18641.0746930891</v>
+        <v>18641.07469308909</v>
       </c>
       <c r="C289">
-        <v>34503.32886342115</v>
+        <v>34503.32886342119</v>
       </c>
       <c r="D289">
         <v>59840.63093263976</v>
       </c>
       <c r="E289">
-        <v>83029.67209220483</v>
+        <v>83029.67209220487</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5284,16 +5284,16 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>17158.76094024264</v>
+        <v>17158.76094024263</v>
       </c>
       <c r="C290">
         <v>32842.06411254044</v>
       </c>
       <c r="D290">
-        <v>58535.69206635018</v>
+        <v>58535.69206635019</v>
       </c>
       <c r="E290">
-        <v>82053.48461709711</v>
+        <v>82053.48461709708</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5307,10 +5307,10 @@
         <v>26410.80487631438</v>
       </c>
       <c r="D291">
-        <v>51810.66885527255</v>
+        <v>51810.66885527256</v>
       </c>
       <c r="E291">
-        <v>75747.67578892353</v>
+        <v>75747.67578892355</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5318,16 +5318,16 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>14233.04908078571</v>
+        <v>14233.04908078573</v>
       </c>
       <c r="C292">
-        <v>28636.24789478604</v>
+        <v>28636.24789478605</v>
       </c>
       <c r="D292">
-        <v>53450.36944806145</v>
+        <v>53450.36944806142</v>
       </c>
       <c r="E292">
-        <v>75956.71992362644</v>
+        <v>75956.71992362643</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5335,16 +5335,16 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>14399.3809387647</v>
+        <v>14399.38093876471</v>
       </c>
       <c r="C293">
-        <v>29246.77969020676</v>
+        <v>29246.77969020675</v>
       </c>
       <c r="D293">
         <v>54467.13750202832</v>
       </c>
       <c r="E293">
-        <v>77202.40374760889</v>
+        <v>77202.40374760886</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5352,16 +5352,16 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>14233.04908078571</v>
+        <v>14233.04908078573</v>
       </c>
       <c r="C294">
-        <v>28636.24789478604</v>
+        <v>28636.24789478605</v>
       </c>
       <c r="D294">
-        <v>53450.36944806145</v>
+        <v>53450.36944806142</v>
       </c>
       <c r="E294">
-        <v>75956.71992362644</v>
+        <v>75956.71992362643</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5369,16 +5369,16 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>11793.88987009393</v>
+        <v>11793.88987009394</v>
       </c>
       <c r="C295">
         <v>23371.07235896846</v>
       </c>
       <c r="D295">
-        <v>47671.95366615737</v>
+        <v>47671.9536661574</v>
       </c>
       <c r="E295">
-        <v>71627.24571748194</v>
+        <v>71627.24571748193</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5389,13 +5389,13 @@
         <v>12739.76268340977</v>
       </c>
       <c r="C296">
-        <v>25566.91427464073</v>
+        <v>25566.91427464072</v>
       </c>
       <c r="D296">
-        <v>51081.32912093757</v>
+        <v>51081.32912093759</v>
       </c>
       <c r="E296">
-        <v>75336.82026986686</v>
+        <v>75336.82026986685</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5406,7 +5406,7 @@
         <v>13665.80708676178</v>
       </c>
       <c r="C297">
-        <v>27594.95360776878</v>
+        <v>27594.95360776879</v>
       </c>
       <c r="D297">
         <v>54253.13084472414</v>
@@ -5420,16 +5420,16 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>11781.63849000867</v>
+        <v>11781.63849000866</v>
       </c>
       <c r="C298">
         <v>23721.90665610946</v>
       </c>
       <c r="D298">
-        <v>48433.73822224764</v>
+        <v>48433.73822224767</v>
       </c>
       <c r="E298">
-        <v>72497.29128273361</v>
+        <v>72497.29128273365</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5437,13 +5437,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>12059.1705208268</v>
+        <v>12059.17052082681</v>
       </c>
       <c r="C299">
-        <v>24635.01760503552</v>
+        <v>24635.01760503551</v>
       </c>
       <c r="D299">
-        <v>50362.01636466842</v>
+        <v>50362.01636466844</v>
       </c>
       <c r="E299">
         <v>74788.71846228297</v>
@@ -5454,16 +5454,16 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>11793.88987009393</v>
+        <v>11793.88987009394</v>
       </c>
       <c r="C300">
         <v>23371.07235896846</v>
       </c>
       <c r="D300">
-        <v>47671.95366615737</v>
+        <v>47671.9536661574</v>
       </c>
       <c r="E300">
-        <v>71627.24571748194</v>
+        <v>71627.24571748193</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5477,10 +5477,10 @@
         <v>26720.08391288775</v>
       </c>
       <c r="D301">
-        <v>52729.70029226931</v>
+        <v>52729.70029226929</v>
       </c>
       <c r="E301">
-        <v>77069.92002466902</v>
+        <v>77069.92002466897</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5494,7 +5494,7 @@
         <v>25915.42863736331</v>
       </c>
       <c r="D302">
-        <v>51622.05513405422</v>
+        <v>51622.05513405423</v>
       </c>
       <c r="E302">
         <v>76014.2171156359</v>
@@ -5511,7 +5511,7 @@
         <v>25915.42863736331</v>
       </c>
       <c r="D303">
-        <v>51622.05513405422</v>
+        <v>51622.05513405423</v>
       </c>
       <c r="E303">
         <v>76014.2171156359</v>
@@ -5528,7 +5528,7 @@
         <v>22635.194842302</v>
       </c>
       <c r="D304">
-        <v>46873.33821758175</v>
+        <v>46873.33821758177</v>
       </c>
       <c r="E304">
         <v>70803.51400012583</v>
@@ -5545,7 +5545,7 @@
         <v>22635.194842302</v>
       </c>
       <c r="D305">
-        <v>46873.33821758175</v>
+        <v>46873.33821758177</v>
       </c>
       <c r="E305">
         <v>70803.51400012583</v>
@@ -5579,7 +5579,7 @@
         <v>22635.194842302</v>
       </c>
       <c r="D307">
-        <v>46873.33821758175</v>
+        <v>46873.33821758177</v>
       </c>
       <c r="E307">
         <v>70803.51400012583</v>
@@ -5599,7 +5599,7 @@
         <v>44654.0233249138</v>
       </c>
       <c r="E308">
-        <v>68268.14719140205</v>
+        <v>68268.14719140204</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5630,10 +5630,10 @@
         <v>23658.05025127491</v>
       </c>
       <c r="D310">
-        <v>48454.14344001403</v>
+        <v>48454.14344001404</v>
       </c>
       <c r="E310">
-        <v>72628.31241790943</v>
+        <v>72628.31241790944</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>6063.738505003791</v>
+        <v>6063.73850500379</v>
       </c>
       <c r="C311">
         <v>12940.01618506115</v>
       </c>
       <c r="D311">
-        <v>32362.58687673814</v>
+        <v>32362.58687673813</v>
       </c>
       <c r="E311">
-        <v>53807.78340353336</v>
+        <v>53807.78340353334</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,16 +5658,16 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>6063.738505003791</v>
+        <v>6063.73850500379</v>
       </c>
       <c r="C312">
         <v>12940.01618506115</v>
       </c>
       <c r="D312">
-        <v>32362.58687673814</v>
+        <v>32362.58687673813</v>
       </c>
       <c r="E312">
-        <v>53807.78340353336</v>
+        <v>53807.78340353334</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5675,16 +5675,16 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>6063.738505003791</v>
+        <v>6063.73850500379</v>
       </c>
       <c r="C313">
         <v>12940.01618506115</v>
       </c>
       <c r="D313">
-        <v>32362.58687673814</v>
+        <v>32362.58687673813</v>
       </c>
       <c r="E313">
-        <v>53807.78340353336</v>
+        <v>53807.78340353334</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>6063.738505003791</v>
+        <v>6063.73850500379</v>
       </c>
       <c r="C314">
         <v>12940.01618506115</v>
       </c>
       <c r="D314">
-        <v>32362.58687673814</v>
+        <v>32362.58687673813</v>
       </c>
       <c r="E314">
-        <v>53807.78340353336</v>
+        <v>53807.78340353334</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5709,16 +5709,16 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>19283.16744279305</v>
+        <v>19283.16744279307</v>
       </c>
       <c r="C315">
         <v>35467.78306513697</v>
       </c>
       <c r="D315">
-        <v>60843.15745921229</v>
+        <v>60843.1574592123</v>
       </c>
       <c r="E315">
-        <v>83208.14006834621</v>
+        <v>83208.14006834624</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5726,16 +5726,16 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>21532.85156824366</v>
+        <v>21532.85156824367</v>
       </c>
       <c r="C316">
         <v>39038.89646131812</v>
       </c>
       <c r="D316">
-        <v>64457.38768185422</v>
+        <v>64457.38768185423</v>
       </c>
       <c r="E316">
-        <v>85977.0533763439</v>
+        <v>85977.05337634395</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5746,13 +5746,13 @@
         <v>20465.25063534675</v>
       </c>
       <c r="C317">
-        <v>37564.08862469428</v>
+        <v>37564.08862469432</v>
       </c>
       <c r="D317">
-        <v>62833.66580491381</v>
+        <v>62833.66580491378</v>
       </c>
       <c r="E317">
-        <v>84651.35938839574</v>
+        <v>84651.35938839581</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5763,10 +5763,10 @@
         <v>19477.35034388959</v>
       </c>
       <c r="C318">
-        <v>36312.26797466088</v>
+        <v>36312.26797466086</v>
       </c>
       <c r="D318">
-        <v>62091.09048995832</v>
+        <v>62091.09048995834</v>
       </c>
       <c r="E318">
         <v>84406.61415891719</v>
@@ -5780,13 +5780,13 @@
         <v>17244.52376879644</v>
       </c>
       <c r="C319">
-        <v>32628.54452918713</v>
+        <v>32628.54452918711</v>
       </c>
       <c r="D319">
         <v>57709.62717553907</v>
       </c>
       <c r="E319">
-        <v>80324.26222183686</v>
+        <v>80324.26222183685</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5800,10 +5800,10 @@
         <v>34054.64270981515</v>
       </c>
       <c r="D320">
-        <v>59756.58253506846</v>
+        <v>59756.58253506848</v>
       </c>
       <c r="E320">
-        <v>82454.9094708226</v>
+        <v>82454.90947082263</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5811,16 +5811,16 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>19116.7114061926</v>
+        <v>19116.71140619261</v>
       </c>
       <c r="C321">
         <v>35872.63816563065</v>
       </c>
       <c r="D321">
-        <v>61448.17180810478</v>
+        <v>61448.17180810482</v>
       </c>
       <c r="E321">
-        <v>83731.49634468585</v>
+        <v>83731.49634468589</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5828,16 +5828,16 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>18510.74602423994</v>
+        <v>18510.74602423995</v>
       </c>
       <c r="C322">
-        <v>34608.43611125414</v>
+        <v>34608.43611125413</v>
       </c>
       <c r="D322">
-        <v>60209.61010942292</v>
+        <v>60209.61010942291</v>
       </c>
       <c r="E322">
-        <v>82862.78187358724</v>
+        <v>82862.78187358727</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5848,13 +5848,13 @@
         <v>17131.67007025464</v>
       </c>
       <c r="C323">
-        <v>32853.68735084961</v>
+        <v>32853.68735084959</v>
       </c>
       <c r="D323">
-        <v>58565.4909371327</v>
+        <v>58565.49093713266</v>
       </c>
       <c r="E323">
-        <v>81513.154660756</v>
+        <v>81513.15466075603</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5865,13 +5865,13 @@
         <v>17131.67007025464</v>
       </c>
       <c r="C324">
-        <v>32853.68735084961</v>
+        <v>32853.68735084959</v>
       </c>
       <c r="D324">
-        <v>58565.4909371327</v>
+        <v>58565.49093713266</v>
       </c>
       <c r="E324">
-        <v>81513.154660756</v>
+        <v>81513.15466075603</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5882,13 +5882,13 @@
         <v>17131.67007025464</v>
       </c>
       <c r="C325">
-        <v>32853.68735084961</v>
+        <v>32853.68735084959</v>
       </c>
       <c r="D325">
-        <v>58565.4909371327</v>
+        <v>58565.49093713266</v>
       </c>
       <c r="E325">
-        <v>81513.154660756</v>
+        <v>81513.15466075603</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5896,16 +5896,16 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>20691.51377092179</v>
+        <v>20691.51377092178</v>
       </c>
       <c r="C326">
-        <v>37791.70204461518</v>
+        <v>37791.7020446152</v>
       </c>
       <c r="D326">
         <v>62892.24975784584</v>
       </c>
       <c r="E326">
-        <v>84606.72677923671</v>
+        <v>84606.72677923672</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5913,16 +5913,16 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>16934.88159498278</v>
+        <v>16934.88159498279</v>
       </c>
       <c r="C327">
-        <v>32634.41055544414</v>
+        <v>32634.41055544413</v>
       </c>
       <c r="D327">
-        <v>58169.22697705037</v>
+        <v>58169.22697705036</v>
       </c>
       <c r="E327">
-        <v>80959.17362758629</v>
+        <v>80959.17362758626</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5930,16 +5930,16 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>16934.88159498278</v>
+        <v>16934.88159498279</v>
       </c>
       <c r="C328">
-        <v>32634.41055544414</v>
+        <v>32634.41055544413</v>
       </c>
       <c r="D328">
-        <v>58169.22697705037</v>
+        <v>58169.22697705036</v>
       </c>
       <c r="E328">
-        <v>80959.17362758629</v>
+        <v>80959.17362758626</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5950,10 +5950,10 @@
         <v>15198.0202038263</v>
       </c>
       <c r="C329">
-        <v>30265.96110233678</v>
+        <v>30265.96110233679</v>
       </c>
       <c r="D329">
-        <v>55997.07154945409</v>
+        <v>55997.07154945406</v>
       </c>
       <c r="E329">
         <v>79325.42250097127</v>
@@ -5964,16 +5964,16 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>16934.88159498278</v>
+        <v>16934.88159498279</v>
       </c>
       <c r="C330">
-        <v>32634.41055544414</v>
+        <v>32634.41055544413</v>
       </c>
       <c r="D330">
-        <v>58169.22697705037</v>
+        <v>58169.22697705036</v>
       </c>
       <c r="E330">
-        <v>80959.17362758629</v>
+        <v>80959.17362758626</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5981,16 +5981,16 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>16174.36155102399</v>
+        <v>16174.36155102398</v>
       </c>
       <c r="C331">
-        <v>31344.52448865619</v>
+        <v>31344.52448865618</v>
       </c>
       <c r="D331">
-        <v>56641.21499255934</v>
+        <v>56641.21499255935</v>
       </c>
       <c r="E331">
-        <v>79497.80243846227</v>
+        <v>79497.80243846225</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,16 +5998,16 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>19396.33771361866</v>
+        <v>19396.33771361865</v>
       </c>
       <c r="C332">
         <v>35786.67823796366</v>
       </c>
       <c r="D332">
-        <v>62036.72744047922</v>
+        <v>62036.7274404792</v>
       </c>
       <c r="E332">
-        <v>84591.44592894586</v>
+        <v>84591.44592894583</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6018,13 +6018,13 @@
         <v>19566.92500138739</v>
       </c>
       <c r="C333">
-        <v>37017.60279558956</v>
+        <v>37017.60279558954</v>
       </c>
       <c r="D333">
-        <v>64258.68986882192</v>
+        <v>64258.68986882193</v>
       </c>
       <c r="E333">
-        <v>86442.19359857678</v>
+        <v>86442.19359857676</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6032,16 +6032,16 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>22559.39819358517</v>
+        <v>22559.39819358518</v>
       </c>
       <c r="C334">
         <v>41451.2955008795</v>
       </c>
       <c r="D334">
-        <v>68588.37841762544</v>
+        <v>68588.37841762543</v>
       </c>
       <c r="E334">
-        <v>89545.77719481407</v>
+        <v>89545.77719481406</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6049,16 +6049,16 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>20937.19750755992</v>
+        <v>20937.1975075599</v>
       </c>
       <c r="C335">
-        <v>39331.50555413683</v>
+        <v>39331.5055541368</v>
       </c>
       <c r="D335">
-        <v>66818.69227839728</v>
+        <v>66818.69227839727</v>
       </c>
       <c r="E335">
-        <v>88413.18325131256</v>
+        <v>88413.18325131254</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6066,16 +6066,16 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>18237.57459241621</v>
+        <v>18237.57459241622</v>
       </c>
       <c r="C336">
-        <v>33529.30776756937</v>
+        <v>33529.30776756939</v>
       </c>
       <c r="D336">
-        <v>59175.17889353537</v>
+        <v>59175.17889353538</v>
       </c>
       <c r="E336">
-        <v>82013.47099519824</v>
+        <v>82013.47099519827</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6092,7 +6092,7 @@
         <v>34071.11590790185</v>
       </c>
       <c r="E337">
-        <v>47894.13476030213</v>
+        <v>47894.13476030211</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6100,13 +6100,13 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>8400.178672300579</v>
+        <v>8400.178672300577</v>
       </c>
       <c r="C338">
         <v>16859.51937321666</v>
       </c>
       <c r="D338">
-        <v>32842.23762248216</v>
+        <v>32842.23762248215</v>
       </c>
       <c r="E338">
         <v>46800.20901889548</v>
@@ -6126,7 +6126,7 @@
         <v>34071.11590790185</v>
       </c>
       <c r="E339">
-        <v>47894.13476030213</v>
+        <v>47894.13476030211</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6134,13 +6134,13 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>7637.676751005738</v>
+        <v>7637.676751005739</v>
       </c>
       <c r="C340">
         <v>15735.35003296487</v>
       </c>
       <c r="D340">
-        <v>31489.86296346422</v>
+        <v>31489.8629634642</v>
       </c>
       <c r="E340">
         <v>44908.39834335232</v>
@@ -6151,13 +6151,13 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>7637.676751005738</v>
+        <v>7637.676751005739</v>
       </c>
       <c r="C341">
         <v>15735.35003296487</v>
       </c>
       <c r="D341">
-        <v>31489.86296346422</v>
+        <v>31489.8629634642</v>
       </c>
       <c r="E341">
         <v>44908.39834335232</v>
@@ -6202,13 +6202,13 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>7637.676751005738</v>
+        <v>7637.676751005739</v>
       </c>
       <c r="C344">
         <v>15735.35003296487</v>
       </c>
       <c r="D344">
-        <v>31489.86296346422</v>
+        <v>31489.8629634642</v>
       </c>
       <c r="E344">
         <v>44908.39834335232</v>
@@ -6219,16 +6219,16 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>5952.635412745246</v>
+        <v>5952.635412745245</v>
       </c>
       <c r="C345">
         <v>12579.01117901782</v>
       </c>
       <c r="D345">
-        <v>27459.72669106645</v>
+        <v>27459.72669106647</v>
       </c>
       <c r="E345">
-        <v>40017.65821902564</v>
+        <v>40017.65821902562</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6236,16 +6236,16 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>5952.635412745246</v>
+        <v>5952.635412745245</v>
       </c>
       <c r="C346">
         <v>12579.01117901782</v>
       </c>
       <c r="D346">
-        <v>27459.72669106645</v>
+        <v>27459.72669106647</v>
       </c>
       <c r="E346">
-        <v>40017.65821902564</v>
+        <v>40017.65821902562</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6253,16 +6253,16 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>5952.635412745246</v>
+        <v>5952.635412745245</v>
       </c>
       <c r="C347">
         <v>12579.01117901782</v>
       </c>
       <c r="D347">
-        <v>27459.72669106645</v>
+        <v>27459.72669106647</v>
       </c>
       <c r="E347">
-        <v>40017.65821902564</v>
+        <v>40017.65821902562</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6273,13 +6273,13 @@
         <v>9788.454879085453</v>
       </c>
       <c r="C348">
-        <v>18787.8450739677</v>
+        <v>18787.84507396769</v>
       </c>
       <c r="D348">
         <v>34486.41274899759</v>
       </c>
       <c r="E348">
-        <v>47852.86218724889</v>
+        <v>47852.86218724884</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6290,13 +6290,13 @@
         <v>9788.454879085453</v>
       </c>
       <c r="C349">
-        <v>18787.8450739677</v>
+        <v>18787.84507396769</v>
       </c>
       <c r="D349">
         <v>34486.41274899759</v>
       </c>
       <c r="E349">
-        <v>47852.86218724889</v>
+        <v>47852.86218724884</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6307,13 +6307,13 @@
         <v>9788.454879085453</v>
       </c>
       <c r="C350">
-        <v>18787.8450739677</v>
+        <v>18787.84507396769</v>
       </c>
       <c r="D350">
         <v>34486.41274899759</v>
       </c>
       <c r="E350">
-        <v>47852.86218724889</v>
+        <v>47852.86218724884</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6321,7 +6321,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>5367.99459232283</v>
+        <v>5367.994592322832</v>
       </c>
       <c r="C351">
         <v>11802.26605806987</v>
@@ -6330,7 +6330,7 @@
         <v>26187.23451980214</v>
       </c>
       <c r="E351">
-        <v>37493.36703038839</v>
+        <v>37493.36703038841</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,7 +6338,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>5367.99459232283</v>
+        <v>5367.994592322832</v>
       </c>
       <c r="C352">
         <v>11802.26605806987</v>
@@ -6347,7 +6347,7 @@
         <v>26187.23451980214</v>
       </c>
       <c r="E352">
-        <v>37493.36703038839</v>
+        <v>37493.36703038841</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6364,7 +6364,7 @@
         <v>42378.39186122568</v>
       </c>
       <c r="E353">
-        <v>58988.16811524971</v>
+        <v>58988.1681152497</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6375,13 +6375,13 @@
         <v>10761.15686915034</v>
       </c>
       <c r="C354">
-        <v>20320.84976943875</v>
+        <v>20320.84976943874</v>
       </c>
       <c r="D354">
-        <v>36359.21371953671</v>
+        <v>36359.2137195367</v>
       </c>
       <c r="E354">
-        <v>50627.98397599758</v>
+        <v>50627.98397599757</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6398,7 +6398,7 @@
         <v>42378.39186122568</v>
       </c>
       <c r="E355">
-        <v>58988.16811524971</v>
+        <v>58988.1681152497</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6412,7 +6412,7 @@
         <v>18683.90238061969</v>
       </c>
       <c r="D356">
-        <v>34318.61020610205</v>
+        <v>34318.61020610204</v>
       </c>
       <c r="E356">
         <v>47601.00400952303</v>
@@ -6429,7 +6429,7 @@
         <v>18683.90238061969</v>
       </c>
       <c r="D357">
-        <v>34318.61020610205</v>
+        <v>34318.61020610204</v>
       </c>
       <c r="E357">
         <v>47601.00400952303</v>
@@ -6446,7 +6446,7 @@
         <v>18683.90238061969</v>
       </c>
       <c r="D358">
-        <v>34318.61020610205</v>
+        <v>34318.61020610204</v>
       </c>
       <c r="E358">
         <v>47601.00400952303</v>
@@ -6460,7 +6460,7 @@
         <v>5613.11047467114</v>
       </c>
       <c r="C359">
-        <v>12237.82329664008</v>
+        <v>12237.82329664009</v>
       </c>
       <c r="D359">
         <v>27073.37267598281</v>
@@ -6477,7 +6477,7 @@
         <v>5613.11047467114</v>
       </c>
       <c r="C360">
-        <v>12237.82329664008</v>
+        <v>12237.82329664009</v>
       </c>
       <c r="D360">
         <v>27073.37267598281</v>
@@ -6494,13 +6494,13 @@
         <v>10468.68731914936</v>
       </c>
       <c r="C361">
-        <v>24252.20347443903</v>
+        <v>24252.20347443904</v>
       </c>
       <c r="D361">
-        <v>52993.00849596685</v>
+        <v>52993.00849596687</v>
       </c>
       <c r="E361">
-        <v>78199.49592752705</v>
+        <v>78199.49592752702</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6511,13 +6511,13 @@
         <v>10421.59411242047</v>
       </c>
       <c r="C362">
-        <v>23551.7758668424</v>
+        <v>23551.77586684242</v>
       </c>
       <c r="D362">
-        <v>51583.80874654145</v>
+        <v>51583.80874654143</v>
       </c>
       <c r="E362">
-        <v>76896.92376705594</v>
+        <v>76896.92376705592</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6525,16 +6525,16 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>7993.016761646521</v>
+        <v>7993.016761646526</v>
       </c>
       <c r="C363">
         <v>19213.96959679912</v>
       </c>
       <c r="D363">
-        <v>46416.21031721278</v>
+        <v>46416.21031721279</v>
       </c>
       <c r="E363">
-        <v>72458.64358166016</v>
+        <v>72458.64358166013</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6545,13 +6545,13 @@
         <v>10483.0897500423</v>
       </c>
       <c r="C364">
-        <v>22977.86136176892</v>
+        <v>22977.86136176891</v>
       </c>
       <c r="D364">
         <v>50458.62232229079</v>
       </c>
       <c r="E364">
-        <v>76628.95077932357</v>
+        <v>76628.95077932352</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6562,13 +6562,13 @@
         <v>10483.0897500423</v>
       </c>
       <c r="C365">
-        <v>22977.86136176892</v>
+        <v>22977.86136176891</v>
       </c>
       <c r="D365">
         <v>50458.62232229079</v>
       </c>
       <c r="E365">
-        <v>76628.95077932357</v>
+        <v>76628.95077932352</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6576,16 +6576,16 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>8235.139669332719</v>
+        <v>8235.139669332721</v>
       </c>
       <c r="C366">
-        <v>18670.14640781037</v>
+        <v>18670.14640781036</v>
       </c>
       <c r="D366">
-        <v>44683.50435678448</v>
+        <v>44683.5043567845</v>
       </c>
       <c r="E366">
-        <v>70998.42639251906</v>
+        <v>70998.42639251903</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6593,16 +6593,16 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>8235.139669332719</v>
+        <v>8235.139669332721</v>
       </c>
       <c r="C367">
-        <v>18670.14640781037</v>
+        <v>18670.14640781036</v>
       </c>
       <c r="D367">
-        <v>44683.50435678448</v>
+        <v>44683.5043567845</v>
       </c>
       <c r="E367">
-        <v>70998.42639251906</v>
+        <v>70998.42639251903</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6610,7 +6610,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>8612.415692203773</v>
+        <v>8612.415692203776</v>
       </c>
       <c r="C368">
         <v>19096.0383601059</v>
@@ -6619,7 +6619,7 @@
         <v>45139.94430262731</v>
       </c>
       <c r="E368">
-        <v>71484.68009846851</v>
+        <v>71484.6800984685</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6627,16 +6627,16 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>8235.139669332719</v>
+        <v>8235.139669332721</v>
       </c>
       <c r="C369">
-        <v>18670.14640781037</v>
+        <v>18670.14640781036</v>
       </c>
       <c r="D369">
-        <v>44683.50435678448</v>
+        <v>44683.5043567845</v>
       </c>
       <c r="E369">
-        <v>70998.42639251906</v>
+        <v>70998.42639251903</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6647,13 +6647,13 @@
         <v>6991.326685795597</v>
       </c>
       <c r="C370">
-        <v>16172.63805549287</v>
+        <v>16172.63805549288</v>
       </c>
       <c r="D370">
-        <v>40814.20809562214</v>
+        <v>40814.20809562215</v>
       </c>
       <c r="E370">
-        <v>66168.28246294022</v>
+        <v>66168.2824629402</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6664,13 +6664,13 @@
         <v>6991.326685795597</v>
       </c>
       <c r="C371">
-        <v>16172.63805549287</v>
+        <v>16172.63805549288</v>
       </c>
       <c r="D371">
-        <v>40814.20809562214</v>
+        <v>40814.20809562215</v>
       </c>
       <c r="E371">
-        <v>66168.28246294022</v>
+        <v>66168.2824629402</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6681,13 +6681,13 @@
         <v>6991.326685795597</v>
       </c>
       <c r="C372">
-        <v>16172.63805549287</v>
+        <v>16172.63805549288</v>
       </c>
       <c r="D372">
-        <v>40814.20809562214</v>
+        <v>40814.20809562215</v>
       </c>
       <c r="E372">
-        <v>66168.28246294022</v>
+        <v>66168.2824629402</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6698,10 +6698,10 @@
         <v>13436.92553695327</v>
       </c>
       <c r="C373">
-        <v>25321.36946068679</v>
+        <v>25321.3694606868</v>
       </c>
       <c r="D373">
-        <v>45885.45264934569</v>
+        <v>45885.45264934567</v>
       </c>
       <c r="E373">
         <v>64578.82950860779</v>
@@ -6718,10 +6718,10 @@
         <v>21020.26461814609</v>
       </c>
       <c r="D374">
-        <v>40100.12633270311</v>
+        <v>40100.1263327031</v>
       </c>
       <c r="E374">
-        <v>58000.21286324858</v>
+        <v>58000.21286324856</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6732,10 +6732,10 @@
         <v>13436.92553695327</v>
       </c>
       <c r="C375">
-        <v>25321.36946068679</v>
+        <v>25321.3694606868</v>
       </c>
       <c r="D375">
-        <v>45885.45264934569</v>
+        <v>45885.45264934567</v>
       </c>
       <c r="E375">
         <v>64578.82950860779</v>
@@ -6752,10 +6752,10 @@
         <v>21711.87970847653</v>
       </c>
       <c r="D376">
-        <v>40919.03693015753</v>
+        <v>40919.03693015754</v>
       </c>
       <c r="E376">
-        <v>59077.89052924034</v>
+        <v>59077.89052924031</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6769,10 +6769,10 @@
         <v>21711.87970847653</v>
       </c>
       <c r="D377">
-        <v>40919.03693015753</v>
+        <v>40919.03693015754</v>
       </c>
       <c r="E377">
-        <v>59077.89052924034</v>
+        <v>59077.89052924031</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6786,10 +6786,10 @@
         <v>29436.65946826571</v>
       </c>
       <c r="D378">
-        <v>50939.93384755986</v>
+        <v>50939.93384755988</v>
       </c>
       <c r="E378">
-        <v>70285.04770844681</v>
+        <v>70285.0477084468</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6803,10 +6803,10 @@
         <v>29436.65946826571</v>
       </c>
       <c r="D379">
-        <v>50939.93384755986</v>
+        <v>50939.93384755988</v>
       </c>
       <c r="E379">
-        <v>70285.04770844681</v>
+        <v>70285.0477084468</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6820,10 +6820,10 @@
         <v>29436.65946826571</v>
       </c>
       <c r="D380">
-        <v>50939.93384755986</v>
+        <v>50939.93384755988</v>
       </c>
       <c r="E380">
-        <v>70285.04770844681</v>
+        <v>70285.0477084468</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6837,10 +6837,10 @@
         <v>29436.65946826571</v>
       </c>
       <c r="D381">
-        <v>50939.93384755986</v>
+        <v>50939.93384755988</v>
       </c>
       <c r="E381">
-        <v>70285.04770844681</v>
+        <v>70285.0477084468</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6851,13 +6851,13 @@
         <v>14414.68571737716</v>
       </c>
       <c r="C382">
-        <v>26855.95519312707</v>
+        <v>26855.95519312708</v>
       </c>
       <c r="D382">
         <v>47290.87541896052</v>
       </c>
       <c r="E382">
-        <v>66256.15773890985</v>
+        <v>66256.15773890982</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6868,10 +6868,10 @@
         <v>13656.18552072513</v>
       </c>
       <c r="C383">
-        <v>26820.8371443033</v>
+        <v>26820.83714430332</v>
       </c>
       <c r="D383">
-        <v>50068.85962555176</v>
+        <v>50068.8596255518</v>
       </c>
       <c r="E383">
         <v>70850.8309451906</v>
@@ -6885,13 +6885,13 @@
         <v>11946.70589487806</v>
       </c>
       <c r="C384">
-        <v>24127.21936905294</v>
+        <v>24127.21936905296</v>
       </c>
       <c r="D384">
-        <v>46600.38838355542</v>
+        <v>46600.38838355544</v>
       </c>
       <c r="E384">
-        <v>67045.44039774164</v>
+        <v>67045.44039774161</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6899,10 +6899,10 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>16527.96349944138</v>
+        <v>16527.96349944137</v>
       </c>
       <c r="C385">
-        <v>32482.38463419931</v>
+        <v>32482.38463419932</v>
       </c>
       <c r="D385">
         <v>57189.14525286127</v>
@@ -6916,16 +6916,16 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>9875.663266751426</v>
+        <v>9875.663266751422</v>
       </c>
       <c r="C386">
-        <v>20976.90423166283</v>
+        <v>20976.90423166284</v>
       </c>
       <c r="D386">
-        <v>43559.00584439314</v>
+        <v>43559.00584439318</v>
       </c>
       <c r="E386">
-        <v>64589.62952800206</v>
+        <v>64589.62952800211</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6933,16 +6933,16 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>9875.663266751426</v>
+        <v>9875.663266751422</v>
       </c>
       <c r="C387">
-        <v>20976.90423166283</v>
+        <v>20976.90423166284</v>
       </c>
       <c r="D387">
-        <v>43559.00584439314</v>
+        <v>43559.00584439318</v>
       </c>
       <c r="E387">
-        <v>64589.62952800206</v>
+        <v>64589.62952800211</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6953,7 +6953,7 @@
         <v>4344.096356522513</v>
       </c>
       <c r="C388">
-        <v>8336.025216488897</v>
+        <v>8336.025216488895</v>
       </c>
       <c r="D388">
         <v>23243.25237087422</v>
@@ -6967,16 +6967,16 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>3596.735248852471</v>
+        <v>3596.735248852472</v>
       </c>
       <c r="C389">
         <v>7845.831042900986</v>
       </c>
       <c r="D389">
-        <v>24689.12043940953</v>
+        <v>24689.12043940954</v>
       </c>
       <c r="E389">
-        <v>44963.43199734309</v>
+        <v>44963.43199734313</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6984,16 +6984,16 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>3596.735248852471</v>
+        <v>3596.735248852472</v>
       </c>
       <c r="C390">
         <v>7845.831042900986</v>
       </c>
       <c r="D390">
-        <v>24689.12043940953</v>
+        <v>24689.12043940954</v>
       </c>
       <c r="E390">
-        <v>44963.43199734309</v>
+        <v>44963.43199734313</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7004,7 +7004,7 @@
         <v>4344.096356522513</v>
       </c>
       <c r="C391">
-        <v>8336.025216488897</v>
+        <v>8336.025216488895</v>
       </c>
       <c r="D391">
         <v>23243.25237087422</v>
@@ -7018,16 +7018,16 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>3596.735248852471</v>
+        <v>3596.735248852472</v>
       </c>
       <c r="C392">
         <v>7845.831042900986</v>
       </c>
       <c r="D392">
-        <v>24689.12043940953</v>
+        <v>24689.12043940954</v>
       </c>
       <c r="E392">
-        <v>44963.43199734309</v>
+        <v>44963.43199734313</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7041,7 +7041,7 @@
         <v>6586.091328579895</v>
       </c>
       <c r="D393">
-        <v>18832.54919989779</v>
+        <v>18832.54919989778</v>
       </c>
       <c r="E393">
         <v>32693.16491955937</v>
@@ -7058,7 +7058,7 @@
         <v>6586.091328579895</v>
       </c>
       <c r="D394">
-        <v>18832.54919989779</v>
+        <v>18832.54919989778</v>
       </c>
       <c r="E394">
         <v>32693.16491955937</v>
@@ -7069,16 +7069,16 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>3718.830637862343</v>
+        <v>3718.830637862346</v>
       </c>
       <c r="C395">
-        <v>7347.549634664312</v>
+        <v>7347.549634664309</v>
       </c>
       <c r="D395">
         <v>20114.80713568272</v>
       </c>
       <c r="E395">
-        <v>34579.02439937513</v>
+        <v>34579.02439937514</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7086,16 +7086,16 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>3718.830637862343</v>
+        <v>3718.830637862346</v>
       </c>
       <c r="C396">
-        <v>7347.549634664312</v>
+        <v>7347.549634664309</v>
       </c>
       <c r="D396">
         <v>20114.80713568272</v>
       </c>
       <c r="E396">
-        <v>34579.02439937513</v>
+        <v>34579.02439937514</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7103,16 +7103,16 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>4127.573027626798</v>
+        <v>4127.573027626797</v>
       </c>
       <c r="C397">
-        <v>7815.543190337448</v>
+        <v>7815.543190337443</v>
       </c>
       <c r="D397">
-        <v>21129.34805455931</v>
+        <v>21129.3480545593</v>
       </c>
       <c r="E397">
-        <v>36636.85258563227</v>
+        <v>36636.85258563224</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7120,16 +7120,16 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>4127.573027626798</v>
+        <v>4127.573027626797</v>
       </c>
       <c r="C398">
-        <v>7815.543190337448</v>
+        <v>7815.543190337443</v>
       </c>
       <c r="D398">
-        <v>21129.34805455931</v>
+        <v>21129.3480545593</v>
       </c>
       <c r="E398">
-        <v>36636.85258563227</v>
+        <v>36636.85258563224</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7137,13 +7137,13 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>2929.022504706201</v>
+        <v>2929.022504706202</v>
       </c>
       <c r="C399">
-        <v>7092.959769487589</v>
+        <v>7092.959769487592</v>
       </c>
       <c r="D399">
-        <v>25528.68906665247</v>
+        <v>25528.68906665245</v>
       </c>
       <c r="E399">
         <v>47775.0869790076</v>
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>2864.098883848308</v>
+        <v>2864.098883848307</v>
       </c>
       <c r="C400">
-        <v>6908.870724964934</v>
+        <v>6908.870724964937</v>
       </c>
       <c r="D400">
-        <v>25309.55641451245</v>
+        <v>25309.55641451244</v>
       </c>
       <c r="E400">
-        <v>47697.52825261428</v>
+        <v>47697.52825261427</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7171,13 +7171,13 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>2929.022504706201</v>
+        <v>2929.022504706202</v>
       </c>
       <c r="C401">
-        <v>7092.959769487589</v>
+        <v>7092.959769487592</v>
       </c>
       <c r="D401">
-        <v>25528.68906665247</v>
+        <v>25528.68906665245</v>
       </c>
       <c r="E401">
         <v>47775.0869790076</v>
@@ -7188,16 +7188,16 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>2681.425486856733</v>
+        <v>2681.425486856732</v>
       </c>
       <c r="C402">
         <v>6311.370206189795</v>
       </c>
       <c r="D402">
-        <v>23312.69354104155</v>
+        <v>23312.69354104156</v>
       </c>
       <c r="E402">
-        <v>43908.62143195725</v>
+        <v>43908.62143195726</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>2864.098883848308</v>
+        <v>2864.098883848307</v>
       </c>
       <c r="C403">
-        <v>6908.870724964934</v>
+        <v>6908.870724964937</v>
       </c>
       <c r="D403">
-        <v>25309.55641451245</v>
+        <v>25309.55641451244</v>
       </c>
       <c r="E403">
-        <v>47697.52825261428</v>
+        <v>47697.52825261427</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7228,7 +7228,7 @@
         <v>5926.020830153177</v>
       </c>
       <c r="D404">
-        <v>22732.39280783993</v>
+        <v>22732.39280783995</v>
       </c>
       <c r="E404">
         <v>43109.75361793656</v>
@@ -7245,7 +7245,7 @@
         <v>5926.020830153177</v>
       </c>
       <c r="D405">
-        <v>22732.39280783993</v>
+        <v>22732.39280783995</v>
       </c>
       <c r="E405">
         <v>43109.75361793656</v>
@@ -7262,7 +7262,7 @@
         <v>5926.020830153177</v>
       </c>
       <c r="D406">
-        <v>22732.39280783993</v>
+        <v>22732.39280783995</v>
       </c>
       <c r="E406">
         <v>43109.75361793656</v>
@@ -7273,16 +7273,16 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>2285.331650549069</v>
+        <v>2285.331650549068</v>
       </c>
       <c r="C407">
-        <v>5310.145713217177</v>
+        <v>5310.145713217176</v>
       </c>
       <c r="D407">
         <v>21091.45781309051</v>
       </c>
       <c r="E407">
-        <v>40299.45329112391</v>
+        <v>40299.45329112389</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7290,16 +7290,16 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>2285.331650549069</v>
+        <v>2285.331650549068</v>
       </c>
       <c r="C408">
-        <v>5310.145713217177</v>
+        <v>5310.145713217176</v>
       </c>
       <c r="D408">
         <v>21091.45781309051</v>
       </c>
       <c r="E408">
-        <v>40299.45329112391</v>
+        <v>40299.45329112389</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7307,16 +7307,16 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>2285.331650549069</v>
+        <v>2285.331650549068</v>
       </c>
       <c r="C409">
-        <v>5310.145713217177</v>
+        <v>5310.145713217176</v>
       </c>
       <c r="D409">
         <v>21091.45781309051</v>
       </c>
       <c r="E409">
-        <v>40299.45329112391</v>
+        <v>40299.45329112389</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7324,16 +7324,16 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>7045.153811339938</v>
+        <v>7045.153811339936</v>
       </c>
       <c r="C410">
         <v>15804.0434728431</v>
       </c>
       <c r="D410">
-        <v>40869.45804329351</v>
+        <v>40869.45804329353</v>
       </c>
       <c r="E410">
-        <v>67871.27965093563</v>
+        <v>67871.27965093566</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7341,13 +7341,13 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>5463.986518763273</v>
+        <v>5463.986518763278</v>
       </c>
       <c r="C411">
-        <v>12488.55526009221</v>
+        <v>12488.5552600922</v>
       </c>
       <c r="D411">
-        <v>35179.18782191887</v>
+        <v>35179.18782191886</v>
       </c>
       <c r="E411">
         <v>61063.16776989316</v>
@@ -7358,13 +7358,13 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>5463.986518763273</v>
+        <v>5463.986518763278</v>
       </c>
       <c r="C412">
-        <v>12488.55526009221</v>
+        <v>12488.5552600922</v>
       </c>
       <c r="D412">
-        <v>35179.18782191887</v>
+        <v>35179.18782191886</v>
       </c>
       <c r="E412">
         <v>61063.16776989316</v>
@@ -7375,16 +7375,16 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>5577.134663686176</v>
+        <v>5577.134663686178</v>
       </c>
       <c r="C413">
         <v>12759.00959891233</v>
       </c>
       <c r="D413">
-        <v>35281.02621661871</v>
+        <v>35281.02621661872</v>
       </c>
       <c r="E413">
-        <v>60234.1944390437</v>
+        <v>60234.19443904365</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7392,16 +7392,16 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>7045.153811339938</v>
+        <v>7045.153811339936</v>
       </c>
       <c r="C414">
         <v>15804.0434728431</v>
       </c>
       <c r="D414">
-        <v>40869.45804329351</v>
+        <v>40869.45804329353</v>
       </c>
       <c r="E414">
-        <v>67871.27965093563</v>
+        <v>67871.27965093566</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7409,16 +7409,16 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>5617.413624074336</v>
+        <v>5617.413624074338</v>
       </c>
       <c r="C415">
         <v>13127.24248444495</v>
       </c>
       <c r="D415">
-        <v>37163.00761262733</v>
+        <v>37163.00761262734</v>
       </c>
       <c r="E415">
-        <v>64107.36795644391</v>
+        <v>64107.36795644389</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7426,16 +7426,16 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>5617.413624074336</v>
+        <v>5617.413624074338</v>
       </c>
       <c r="C416">
         <v>13127.24248444495</v>
       </c>
       <c r="D416">
-        <v>37163.00761262733</v>
+        <v>37163.00761262734</v>
       </c>
       <c r="E416">
-        <v>64107.36795644391</v>
+        <v>64107.36795644389</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7446,13 +7446,13 @@
         <v>3890.829628547022</v>
       </c>
       <c r="C417">
-        <v>9317.361070200604</v>
+        <v>9317.36107020061</v>
       </c>
       <c r="D417">
-        <v>30069.48507757319</v>
+        <v>30069.48507757318</v>
       </c>
       <c r="E417">
-        <v>54643.62526514661</v>
+        <v>54643.6252651466</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7463,13 +7463,13 @@
         <v>3890.829628547022</v>
       </c>
       <c r="C418">
-        <v>9317.361070200604</v>
+        <v>9317.36107020061</v>
       </c>
       <c r="D418">
-        <v>30069.48507757319</v>
+        <v>30069.48507757318</v>
       </c>
       <c r="E418">
-        <v>54643.62526514661</v>
+        <v>54643.6252651466</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7477,7 +7477,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C419">
         <v>13776.86522357838</v>
@@ -7486,7 +7486,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E419">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7494,7 +7494,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C420">
         <v>13776.86522357838</v>
@@ -7503,7 +7503,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E420">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7511,16 +7511,16 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>6595.157424861601</v>
+        <v>6595.157424861603</v>
       </c>
       <c r="C421">
-        <v>13249.05093772468</v>
+        <v>13249.05093772469</v>
       </c>
       <c r="D421">
-        <v>32674.22701682096</v>
+        <v>32674.22701682097</v>
       </c>
       <c r="E421">
-        <v>54593.78696605955</v>
+        <v>54593.78696605953</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7528,16 +7528,16 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>6595.157424861601</v>
+        <v>6595.157424861603</v>
       </c>
       <c r="C422">
-        <v>13249.05093772468</v>
+        <v>13249.05093772469</v>
       </c>
       <c r="D422">
-        <v>32674.22701682096</v>
+        <v>32674.22701682097</v>
       </c>
       <c r="E422">
-        <v>54593.78696605955</v>
+        <v>54593.78696605953</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7545,7 +7545,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C423">
         <v>13776.86522357838</v>
@@ -7554,7 +7554,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E423">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7562,7 +7562,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C424">
         <v>13776.86522357838</v>
@@ -7571,7 +7571,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E424">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7579,16 +7579,16 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>6595.157424861601</v>
+        <v>6595.157424861603</v>
       </c>
       <c r="C425">
-        <v>13249.05093772468</v>
+        <v>13249.05093772469</v>
       </c>
       <c r="D425">
-        <v>32674.22701682096</v>
+        <v>32674.22701682097</v>
       </c>
       <c r="E425">
-        <v>54593.78696605955</v>
+        <v>54593.78696605953</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7596,7 +7596,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C426">
         <v>13776.86522357838</v>
@@ -7605,7 +7605,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E426">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7613,7 +7613,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C427">
         <v>13776.86522357838</v>
@@ -7622,7 +7622,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E427">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7630,7 +7630,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C428">
         <v>13776.86522357838</v>
@@ -7639,7 +7639,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E428">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7647,7 +7647,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C429">
         <v>13776.86522357838</v>
@@ -7656,7 +7656,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E429">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7664,7 +7664,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C430">
         <v>13776.86522357838</v>
@@ -7673,7 +7673,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E430">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7681,16 +7681,16 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>6595.157424861601</v>
+        <v>6595.157424861603</v>
       </c>
       <c r="C431">
-        <v>13249.05093772468</v>
+        <v>13249.05093772469</v>
       </c>
       <c r="D431">
-        <v>32674.22701682096</v>
+        <v>32674.22701682097</v>
       </c>
       <c r="E431">
-        <v>54593.78696605955</v>
+        <v>54593.78696605953</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7698,7 +7698,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C432">
         <v>13776.86522357838</v>
@@ -7707,7 +7707,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E432">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7715,7 +7715,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C433">
         <v>13776.86522357838</v>
@@ -7724,7 +7724,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E433">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7738,10 +7738,10 @@
         <v>10185.31885872861</v>
       </c>
       <c r="D434">
-        <v>27401.27505463607</v>
+        <v>27401.27505463606</v>
       </c>
       <c r="E434">
-        <v>46788.9040330481</v>
+        <v>46788.90403304807</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7749,7 +7749,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C435">
         <v>13776.86522357838</v>
@@ -7758,7 +7758,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E435">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7766,16 +7766,16 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>4750.740097007102</v>
+        <v>4750.740097007103</v>
       </c>
       <c r="C436">
         <v>10327.33805562593</v>
       </c>
       <c r="D436">
-        <v>27862.35692000241</v>
+        <v>27862.35692000244</v>
       </c>
       <c r="E436">
-        <v>47656.58550493546</v>
+        <v>47656.58550493548</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7786,7 +7786,7 @@
         <v>3529.314335442334</v>
       </c>
       <c r="C437">
-        <v>7961.241435302944</v>
+        <v>7961.241435302942</v>
       </c>
       <c r="D437">
         <v>22808.62316792392</v>
@@ -7803,7 +7803,7 @@
         <v>3529.314335442334</v>
       </c>
       <c r="C438">
-        <v>7961.241435302944</v>
+        <v>7961.241435302942</v>
       </c>
       <c r="D438">
         <v>22808.62316792392</v>
@@ -7820,7 +7820,7 @@
         <v>3529.314335442334</v>
       </c>
       <c r="C439">
-        <v>7961.241435302944</v>
+        <v>7961.241435302942</v>
       </c>
       <c r="D439">
         <v>22808.62316792392</v>
@@ -7837,7 +7837,7 @@
         <v>3529.314335442334</v>
       </c>
       <c r="C440">
-        <v>7961.241435302944</v>
+        <v>7961.241435302942</v>
       </c>
       <c r="D440">
         <v>22808.62316792392</v>
@@ -7854,7 +7854,7 @@
         <v>3529.314335442334</v>
       </c>
       <c r="C441">
-        <v>7961.241435302944</v>
+        <v>7961.241435302942</v>
       </c>
       <c r="D441">
         <v>22808.62316792392</v>
@@ -7871,7 +7871,7 @@
         <v>3529.314335442334</v>
       </c>
       <c r="C442">
-        <v>7961.241435302944</v>
+        <v>7961.241435302942</v>
       </c>
       <c r="D442">
         <v>22808.62316792392</v>
@@ -7888,7 +7888,7 @@
         <v>3529.314335442334</v>
       </c>
       <c r="C443">
-        <v>7961.241435302944</v>
+        <v>7961.241435302942</v>
       </c>
       <c r="D443">
         <v>22808.62316792392</v>
@@ -7905,7 +7905,7 @@
         <v>3529.314335442334</v>
       </c>
       <c r="C444">
-        <v>7961.241435302944</v>
+        <v>7961.241435302942</v>
       </c>
       <c r="D444">
         <v>22808.62316792392</v>
@@ -7922,7 +7922,7 @@
         <v>3529.314335442334</v>
       </c>
       <c r="C445">
-        <v>7961.241435302944</v>
+        <v>7961.241435302942</v>
       </c>
       <c r="D445">
         <v>22808.62316792392</v>
@@ -7939,7 +7939,7 @@
         <v>3529.314335442334</v>
       </c>
       <c r="C446">
-        <v>7961.241435302944</v>
+        <v>7961.241435302942</v>
       </c>
       <c r="D446">
         <v>22808.62316792392</v>
@@ -7956,7 +7956,7 @@
         <v>3529.314335442334</v>
       </c>
       <c r="C447">
-        <v>7961.241435302944</v>
+        <v>7961.241435302942</v>
       </c>
       <c r="D447">
         <v>22808.62316792392</v>
@@ -7970,16 +7970,16 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>9588.588225484487</v>
+        <v>9588.58822548448</v>
       </c>
       <c r="C448">
         <v>17798.83574480384</v>
       </c>
       <c r="D448">
-        <v>39043.50653736303</v>
+        <v>39043.50653736305</v>
       </c>
       <c r="E448">
-        <v>62406.18911106014</v>
+        <v>62406.18911106015</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7987,16 +7987,16 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>9588.588225484487</v>
+        <v>9588.58822548448</v>
       </c>
       <c r="C449">
         <v>17798.83574480384</v>
       </c>
       <c r="D449">
-        <v>39043.50653736303</v>
+        <v>39043.50653736305</v>
       </c>
       <c r="E449">
-        <v>62406.18911106014</v>
+        <v>62406.18911106015</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8004,16 +8004,16 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>9588.588225484487</v>
+        <v>9588.58822548448</v>
       </c>
       <c r="C450">
         <v>17798.83574480384</v>
       </c>
       <c r="D450">
-        <v>39043.50653736303</v>
+        <v>39043.50653736305</v>
       </c>
       <c r="E450">
-        <v>62406.18911106014</v>
+        <v>62406.18911106015</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8021,16 +8021,16 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>9588.588225484487</v>
+        <v>9588.58822548448</v>
       </c>
       <c r="C451">
         <v>17798.83574480384</v>
       </c>
       <c r="D451">
-        <v>39043.50653736303</v>
+        <v>39043.50653736305</v>
       </c>
       <c r="E451">
-        <v>62406.18911106014</v>
+        <v>62406.18911106015</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8038,16 +8038,16 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>9588.588225484487</v>
+        <v>9588.58822548448</v>
       </c>
       <c r="C452">
         <v>17798.83574480384</v>
       </c>
       <c r="D452">
-        <v>39043.50653736303</v>
+        <v>39043.50653736305</v>
       </c>
       <c r="E452">
-        <v>62406.18911106014</v>
+        <v>62406.18911106015</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8055,16 +8055,16 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>9588.588225484487</v>
+        <v>9588.58822548448</v>
       </c>
       <c r="C453">
         <v>17798.83574480384</v>
       </c>
       <c r="D453">
-        <v>39043.50653736303</v>
+        <v>39043.50653736305</v>
       </c>
       <c r="E453">
-        <v>62406.18911106014</v>
+        <v>62406.18911106015</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,7 +8072,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>8294.893247648792</v>
+        <v>8294.89324764879</v>
       </c>
       <c r="C454">
         <v>15657.61807321267</v>
@@ -8089,7 +8089,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>8294.893247648792</v>
+        <v>8294.89324764879</v>
       </c>
       <c r="C455">
         <v>15657.61807321267</v>
@@ -8106,7 +8106,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>8294.893247648792</v>
+        <v>8294.89324764879</v>
       </c>
       <c r="C456">
         <v>15657.61807321267</v>
@@ -8123,7 +8123,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>8294.893247648792</v>
+        <v>8294.89324764879</v>
       </c>
       <c r="C457">
         <v>15657.61807321267</v>
@@ -8140,7 +8140,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>8294.893247648792</v>
+        <v>8294.89324764879</v>
       </c>
       <c r="C458">
         <v>15657.61807321267</v>
@@ -8157,7 +8157,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>8294.893247648792</v>
+        <v>8294.89324764879</v>
       </c>
       <c r="C459">
         <v>15657.61807321267</v>
@@ -8174,7 +8174,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>8294.893247648792</v>
+        <v>8294.89324764879</v>
       </c>
       <c r="C460">
         <v>15657.61807321267</v>
@@ -8191,7 +8191,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>8294.893247648792</v>
+        <v>8294.89324764879</v>
       </c>
       <c r="C461">
         <v>15657.61807321267</v>
@@ -8208,7 +8208,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>8294.893247648792</v>
+        <v>8294.89324764879</v>
       </c>
       <c r="C462">
         <v>15657.61807321267</v>
@@ -8225,7 +8225,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C463">
         <v>13776.86522357838</v>
@@ -8234,7 +8234,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E463">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8242,7 +8242,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C464">
         <v>13776.86522357838</v>
@@ -8251,7 +8251,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E464">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8265,10 +8265,10 @@
         <v>10185.31885872861</v>
       </c>
       <c r="D465">
-        <v>27401.27505463607</v>
+        <v>27401.27505463606</v>
       </c>
       <c r="E465">
-        <v>46788.9040330481</v>
+        <v>46788.90403304807</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8282,10 +8282,10 @@
         <v>10185.31885872861</v>
       </c>
       <c r="D466">
-        <v>27401.27505463607</v>
+        <v>27401.27505463606</v>
       </c>
       <c r="E466">
-        <v>46788.9040330481</v>
+        <v>46788.90403304807</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8293,7 +8293,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C467">
         <v>13776.86522357838</v>
@@ -8302,7 +8302,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E467">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8310,16 +8310,16 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>9588.588225484487</v>
+        <v>9588.58822548448</v>
       </c>
       <c r="C468">
         <v>17798.83574480384</v>
       </c>
       <c r="D468">
-        <v>39043.50653736303</v>
+        <v>39043.50653736305</v>
       </c>
       <c r="E468">
-        <v>62406.18911106014</v>
+        <v>62406.18911106015</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8327,16 +8327,16 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>9588.588225484487</v>
+        <v>9588.58822548448</v>
       </c>
       <c r="C469">
         <v>17798.83574480384</v>
       </c>
       <c r="D469">
-        <v>39043.50653736303</v>
+        <v>39043.50653736305</v>
       </c>
       <c r="E469">
-        <v>62406.18911106014</v>
+        <v>62406.18911106015</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8344,16 +8344,16 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>9588.588225484487</v>
+        <v>9588.58822548448</v>
       </c>
       <c r="C470">
         <v>17798.83574480384</v>
       </c>
       <c r="D470">
-        <v>39043.50653736303</v>
+        <v>39043.50653736305</v>
       </c>
       <c r="E470">
-        <v>62406.18911106014</v>
+        <v>62406.18911106015</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8361,7 +8361,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>6851.754468787549</v>
+        <v>6851.75446878755</v>
       </c>
       <c r="C471">
         <v>13776.86522357838</v>
@@ -8370,7 +8370,7 @@
         <v>33812.32854248943</v>
       </c>
       <c r="E471">
-        <v>56365.72409424106</v>
+        <v>56365.72409424108</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8378,7 +8378,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>8294.893247648792</v>
+        <v>8294.89324764879</v>
       </c>
       <c r="C472">
         <v>15657.61807321267</v>
@@ -8401,10 +8401,10 @@
         <v>10185.31885872861</v>
       </c>
       <c r="D473">
-        <v>27401.27505463607</v>
+        <v>27401.27505463606</v>
       </c>
       <c r="E473">
-        <v>46788.9040330481</v>
+        <v>46788.90403304807</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8418,10 +8418,10 @@
         <v>10185.31885872861</v>
       </c>
       <c r="D474">
-        <v>27401.27505463607</v>
+        <v>27401.27505463606</v>
       </c>
       <c r="E474">
-        <v>46788.9040330481</v>
+        <v>46788.90403304807</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8429,16 +8429,16 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>4750.740097007102</v>
+        <v>4750.740097007103</v>
       </c>
       <c r="C475">
         <v>10327.33805562593</v>
       </c>
       <c r="D475">
-        <v>27862.35692000241</v>
+        <v>27862.35692000244</v>
       </c>
       <c r="E475">
-        <v>47656.58550493546</v>
+        <v>47656.58550493548</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8446,16 +8446,16 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>4366.457129951275</v>
+        <v>4366.457129951274</v>
       </c>
       <c r="C476">
-        <v>9699.804990992105</v>
+        <v>9699.804990992108</v>
       </c>
       <c r="D476">
-        <v>27076.43258824256</v>
+        <v>27076.43258824255</v>
       </c>
       <c r="E476">
-        <v>46392.10509790856</v>
+        <v>46392.10509790853</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8463,16 +8463,16 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>4366.457129951275</v>
+        <v>4366.457129951274</v>
       </c>
       <c r="C477">
-        <v>9699.804990992105</v>
+        <v>9699.804990992108</v>
       </c>
       <c r="D477">
-        <v>27076.43258824256</v>
+        <v>27076.43258824255</v>
       </c>
       <c r="E477">
-        <v>46392.10509790856</v>
+        <v>46392.10509790853</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8480,16 +8480,16 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>5823.795856003661</v>
+        <v>5823.795856003663</v>
       </c>
       <c r="C478">
         <v>11468.82113395515</v>
       </c>
       <c r="D478">
-        <v>30080.15641735777</v>
+        <v>30080.15641735776</v>
       </c>
       <c r="E478">
-        <v>51828.07020135826</v>
+        <v>51828.07020135829</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8497,16 +8497,16 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>5165.524919247879</v>
+        <v>5165.52491924788</v>
       </c>
       <c r="C479">
         <v>10408.1196342532</v>
       </c>
       <c r="D479">
-        <v>28279.46941028569</v>
+        <v>28279.4694102857</v>
       </c>
       <c r="E479">
-        <v>49355.28714297483</v>
+        <v>49355.28714297484</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8514,16 +8514,16 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>5993.896191016491</v>
+        <v>5993.89619101649</v>
       </c>
       <c r="C480">
-        <v>11876.07315137076</v>
+        <v>11876.07315137077</v>
       </c>
       <c r="D480">
-        <v>31134.0926253261</v>
+        <v>31134.09262532611</v>
       </c>
       <c r="E480">
-        <v>53585.35659419207</v>
+        <v>53585.35659419205</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8531,16 +8531,16 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>5823.795856003661</v>
+        <v>5823.795856003663</v>
       </c>
       <c r="C481">
         <v>11468.82113395515</v>
       </c>
       <c r="D481">
-        <v>30080.15641735777</v>
+        <v>30080.15641735776</v>
       </c>
       <c r="E481">
-        <v>51828.07020135826</v>
+        <v>51828.07020135829</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8548,16 +8548,16 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>5823.795856003661</v>
+        <v>5823.795856003663</v>
       </c>
       <c r="C482">
         <v>11468.82113395515</v>
       </c>
       <c r="D482">
-        <v>30080.15641735777</v>
+        <v>30080.15641735776</v>
       </c>
       <c r="E482">
-        <v>51828.07020135826</v>
+        <v>51828.07020135829</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8565,16 +8565,16 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>5823.795856003661</v>
+        <v>5823.795856003663</v>
       </c>
       <c r="C483">
         <v>11468.82113395515</v>
       </c>
       <c r="D483">
-        <v>30080.15641735777</v>
+        <v>30080.15641735776</v>
       </c>
       <c r="E483">
-        <v>51828.07020135826</v>
+        <v>51828.07020135829</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8582,16 +8582,16 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>5823.795856003661</v>
+        <v>5823.795856003663</v>
       </c>
       <c r="C484">
         <v>11468.82113395515</v>
       </c>
       <c r="D484">
-        <v>30080.15641735777</v>
+        <v>30080.15641735776</v>
       </c>
       <c r="E484">
-        <v>51828.07020135826</v>
+        <v>51828.07020135829</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8599,16 +8599,16 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>5993.896191016491</v>
+        <v>5993.89619101649</v>
       </c>
       <c r="C485">
-        <v>11876.07315137076</v>
+        <v>11876.07315137077</v>
       </c>
       <c r="D485">
-        <v>31134.0926253261</v>
+        <v>31134.09262532611</v>
       </c>
       <c r="E485">
-        <v>53585.35659419207</v>
+        <v>53585.35659419205</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8616,7 +8616,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>5718.267324259777</v>
+        <v>5718.267324259778</v>
       </c>
       <c r="C486">
         <v>11397.44361221111</v>
@@ -8625,7 +8625,7 @@
         <v>30258.59454347273</v>
       </c>
       <c r="E486">
-        <v>52413.32898901278</v>
+        <v>52413.32898901277</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8642,7 +8642,7 @@
         <v>27984.73490993924</v>
       </c>
       <c r="E487">
-        <v>48287.28852866582</v>
+        <v>48287.28852866578</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8656,10 +8656,10 @@
         <v>11372.52336333183</v>
       </c>
       <c r="D488">
-        <v>29004.92698988662</v>
+        <v>29004.92698988663</v>
       </c>
       <c r="E488">
-        <v>49363.45473605733</v>
+        <v>49363.45473605732</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8673,10 +8673,10 @@
         <v>11372.52336333183</v>
       </c>
       <c r="D489">
-        <v>29004.92698988662</v>
+        <v>29004.92698988663</v>
       </c>
       <c r="E489">
-        <v>49363.45473605733</v>
+        <v>49363.45473605732</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8684,7 +8684,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>7837.210784231739</v>
+        <v>7837.21078423174</v>
       </c>
       <c r="C490">
         <v>15926.86138803109</v>
@@ -8701,7 +8701,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>7837.210784231739</v>
+        <v>7837.21078423174</v>
       </c>
       <c r="C491">
         <v>15926.86138803109</v>
@@ -8718,7 +8718,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>7837.210784231739</v>
+        <v>7837.21078423174</v>
       </c>
       <c r="C492">
         <v>15926.86138803109</v>
@@ -8735,7 +8735,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>7837.210784231739</v>
+        <v>7837.21078423174</v>
       </c>
       <c r="C493">
         <v>15926.86138803109</v>
@@ -8752,7 +8752,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>7837.210784231739</v>
+        <v>7837.21078423174</v>
       </c>
       <c r="C494">
         <v>15926.86138803109</v>
@@ -8769,16 +8769,16 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>7462.053618358162</v>
+        <v>7462.053618358165</v>
       </c>
       <c r="C495">
-        <v>16463.7135754016</v>
+        <v>16463.71357540159</v>
       </c>
       <c r="D495">
-        <v>40472.85123864041</v>
+        <v>40472.85123864042</v>
       </c>
       <c r="E495">
-        <v>66239.13600131392</v>
+        <v>66239.13600131393</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8786,16 +8786,16 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>8279.90920403201</v>
+        <v>8279.909204032012</v>
       </c>
       <c r="C496">
         <v>17883.45238034011</v>
       </c>
       <c r="D496">
-        <v>42433.67106159138</v>
+        <v>42433.67106159139</v>
       </c>
       <c r="E496">
-        <v>68338.86413757862</v>
+        <v>68338.86413757861</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8803,16 +8803,16 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>7462.053618358162</v>
+        <v>7462.053618358165</v>
       </c>
       <c r="C497">
-        <v>16463.7135754016</v>
+        <v>16463.71357540159</v>
       </c>
       <c r="D497">
-        <v>40472.85123864041</v>
+        <v>40472.85123864042</v>
       </c>
       <c r="E497">
-        <v>66239.13600131392</v>
+        <v>66239.13600131393</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8820,7 +8820,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>8529.629264501145</v>
+        <v>8529.629264501144</v>
       </c>
       <c r="C498">
         <v>17254.30297829994</v>
@@ -8829,7 +8829,7 @@
         <v>38925.45689087074</v>
       </c>
       <c r="E498">
-        <v>62285.86835457091</v>
+        <v>62285.86835457093</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8837,7 +8837,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>8529.629264501145</v>
+        <v>8529.629264501144</v>
       </c>
       <c r="C499">
         <v>17254.30297829994</v>
@@ -8846,7 +8846,7 @@
         <v>38925.45689087074</v>
       </c>
       <c r="E499">
-        <v>62285.86835457091</v>
+        <v>62285.86835457093</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8854,7 +8854,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>8529.629264501145</v>
+        <v>8529.629264501144</v>
       </c>
       <c r="C500">
         <v>17254.30297829994</v>
@@ -8863,7 +8863,7 @@
         <v>38925.45689087074</v>
       </c>
       <c r="E500">
-        <v>62285.86835457091</v>
+        <v>62285.86835457093</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8871,16 +8871,16 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>6355.20637130405</v>
+        <v>6355.206371304052</v>
       </c>
       <c r="C501">
-        <v>12287.41745160883</v>
+        <v>12287.41745160882</v>
       </c>
       <c r="D501">
         <v>30365.47771713687</v>
       </c>
       <c r="E501">
-        <v>51111.49583019376</v>
+        <v>51111.49583019374</v>
       </c>
     </row>
   </sheetData>
